--- a/tt.xlsx
+++ b/tt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ejnu-my.sharepoint.com/personal/151923_jnu_ac_kr/Documents/공부/Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_392A4A7395557625CB3FB055C793160E3341BF72" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{977C9A10-26CA-824E-8442-1CB262CBBDA6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_392A4A7395557625CB3FB055C793160E3341BF72" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B27E5531-01DC-3444-A83F-1555503DDF11}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Freq.</t>
   </si>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>Micaplate</t>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -368,13 +372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L802"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -387,6 +392,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
@@ -398,7 +406,9 @@
       <c r="C2" s="1">
         <v>1.44465E-10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -418,7 +428,9 @@
       <c r="C3" s="1">
         <v>8.39638E-13</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -438,7 +450,9 @@
       <c r="C4" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -458,7 +472,9 @@
       <c r="C5" s="1">
         <v>8.39638E-13</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -478,7 +494,9 @@
       <c r="C6" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -498,7 +516,9 @@
       <c r="C7" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -518,7 +538,9 @@
       <c r="C8" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -538,7 +560,9 @@
       <c r="C9" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -558,7 +582,9 @@
       <c r="C10" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -578,7 +604,9 @@
       <c r="C11" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -598,7 +626,9 @@
       <c r="C12" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -618,7 +648,9 @@
       <c r="C13" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -638,7 +670,9 @@
       <c r="C14" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -658,7 +692,9 @@
       <c r="C15" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -678,7 +714,9 @@
       <c r="C16" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -698,7 +736,9 @@
       <c r="C17" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -718,7 +758,9 @@
       <c r="C18" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -738,7 +780,9 @@
       <c r="C19" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -758,7 +802,9 @@
       <c r="C20" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -778,7 +824,9 @@
       <c r="C21" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -798,7 +846,9 @@
       <c r="C22" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -818,7 +868,9 @@
       <c r="C23" s="1">
         <v>-9.7936199999999992E-13</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -838,7 +890,9 @@
       <c r="C24" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -858,7 +912,9 @@
       <c r="C25" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -878,7 +934,9 @@
       <c r="C26" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -898,7 +956,9 @@
       <c r="C27" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -918,7 +978,9 @@
       <c r="C28" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -938,7 +1000,9 @@
       <c r="C29" s="1">
         <v>-1.5531300000000001E-11</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -958,7 +1022,9 @@
       <c r="C30" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -978,7 +1044,9 @@
       <c r="C31" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -998,7 +1066,9 @@
       <c r="C32" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1018,7 +1088,9 @@
       <c r="C33" s="1">
         <v>-8.2553599999999993E-12</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1038,7 +1110,9 @@
       <c r="C34" s="1">
         <v>-6.8911100000000001E-12</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1058,7 +1132,9 @@
       <c r="C35" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1078,7 +1154,9 @@
       <c r="C36" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1098,7 +1176,9 @@
       <c r="C37" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1118,7 +1198,9 @@
       <c r="C38" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1138,7 +1220,9 @@
       <c r="C39" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1158,7 +1242,9 @@
       <c r="C40" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1178,7 +1264,9 @@
       <c r="C41" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1198,7 +1286,9 @@
       <c r="C42" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1218,7 +1308,9 @@
       <c r="C43" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1238,7 +1330,9 @@
       <c r="C44" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1258,7 +1352,9 @@
       <c r="C45" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1278,7 +1374,9 @@
       <c r="C46" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1298,7 +1396,9 @@
       <c r="C47" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1318,7 +1418,9 @@
       <c r="C48" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1338,7 +1440,9 @@
       <c r="C49" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1358,7 +1462,9 @@
       <c r="C50" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1378,7 +1484,9 @@
       <c r="C51" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1398,7 +1506,9 @@
       <c r="C52" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1418,7 +1528,9 @@
       <c r="C53" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1438,7 +1550,9 @@
       <c r="C54" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1458,7 +1572,9 @@
       <c r="C55" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1478,7 +1594,9 @@
       <c r="C56" s="1">
         <v>8.39638E-13</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1498,7 +1616,9 @@
       <c r="C57" s="1">
         <v>-9.7936199999999992E-13</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1518,7 +1638,9 @@
       <c r="C58" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1538,7 +1660,9 @@
       <c r="C59" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1558,7 +1682,9 @@
       <c r="C60" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1578,7 +1704,9 @@
       <c r="C61" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1598,7 +1726,9 @@
       <c r="C62" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1618,7 +1748,9 @@
       <c r="C63" s="1">
         <v>-8.2553599999999993E-12</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1638,7 +1770,9 @@
       <c r="C64" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1658,7 +1792,9 @@
       <c r="C65" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1678,7 +1814,9 @@
       <c r="C66" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1698,7 +1836,9 @@
       <c r="C67" s="1">
         <v>-7.3458600000000004E-12</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1718,7 +1858,9 @@
       <c r="C68" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1738,7 +1880,9 @@
       <c r="C69" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1758,7 +1902,9 @@
       <c r="C70" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1778,7 +1924,9 @@
       <c r="C71" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1798,7 +1946,9 @@
       <c r="C72" s="1">
         <v>5.8418899999999999E-12</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -1818,7 +1968,9 @@
       <c r="C73" s="1">
         <v>1.4027400000000001E-11</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -1838,7 +1990,9 @@
       <c r="C74" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1858,7 +2012,9 @@
       <c r="C75" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1878,7 +2034,9 @@
       <c r="C76" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -1898,7 +2056,9 @@
       <c r="C77" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -1918,7 +2078,9 @@
       <c r="C78" s="1">
         <v>-2.05336E-11</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -1938,7 +2100,9 @@
       <c r="C79" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -1958,7 +2122,9 @@
       <c r="C80" s="1">
         <v>-5.0721099999999999E-12</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -1978,7 +2144,9 @@
       <c r="C81" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -1998,7 +2166,9 @@
       <c r="C82" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2018,7 +2188,9 @@
       <c r="C83" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2038,7 +2210,9 @@
       <c r="C84" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2058,7 +2232,9 @@
       <c r="C85" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2078,7 +2254,9 @@
       <c r="C86" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2098,7 +2276,9 @@
       <c r="C87" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2118,7 +2298,9 @@
       <c r="C88" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2138,7 +2320,9 @@
       <c r="C89" s="1">
         <v>-5.0721099999999999E-12</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2158,7 +2342,9 @@
       <c r="C90" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2178,7 +2364,9 @@
       <c r="C91" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2198,7 +2386,9 @@
       <c r="C92" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2218,7 +2408,9 @@
       <c r="C93" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2238,7 +2430,9 @@
       <c r="C94" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2258,7 +2452,9 @@
       <c r="C95" s="1">
         <v>5.3871399999999996E-12</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2278,7 +2474,9 @@
       <c r="C96" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2298,7 +2496,9 @@
       <c r="C97" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2318,7 +2518,9 @@
       <c r="C98" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2338,7 +2540,9 @@
       <c r="C99" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2358,7 +2562,9 @@
       <c r="C100" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2378,7 +2584,9 @@
       <c r="C101" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2398,7 +2606,9 @@
       <c r="C102" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2418,7 +2628,9 @@
       <c r="C103" s="1">
         <v>-9.7936199999999992E-13</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2438,7 +2650,9 @@
       <c r="C104" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2458,7 +2672,9 @@
       <c r="C105" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2478,7 +2694,9 @@
       <c r="C106" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2498,7 +2716,9 @@
       <c r="C107" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2518,7 +2738,9 @@
       <c r="C108" s="1">
         <v>-5.0721099999999999E-12</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2538,7 +2760,9 @@
       <c r="C109" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2558,7 +2782,9 @@
       <c r="C110" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -2578,7 +2804,9 @@
       <c r="C111" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -2598,7 +2826,9 @@
       <c r="C112" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -2618,7 +2848,9 @@
       <c r="C113" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -2638,7 +2870,9 @@
       <c r="C114" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -2658,7 +2892,9 @@
       <c r="C115" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -2678,7 +2914,9 @@
       <c r="C116" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -2698,7 +2936,9 @@
       <c r="C117" s="1">
         <v>3.5681499999999999E-12</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -2718,7 +2958,9 @@
       <c r="C118" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -2738,7 +2980,9 @@
       <c r="C119" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -2758,7 +3002,9 @@
       <c r="C120" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -2778,7 +3024,9 @@
       <c r="C121" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -2798,7 +3046,9 @@
       <c r="C122" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -2818,7 +3068,9 @@
       <c r="C123" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -2838,7 +3090,9 @@
       <c r="C124" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -2858,7 +3112,9 @@
       <c r="C125" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -2878,7 +3134,9 @@
       <c r="C126" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -2898,7 +3156,9 @@
       <c r="C127" s="1">
         <v>-2.32621E-11</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -2918,7 +3178,9 @@
       <c r="C128" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -2938,7 +3200,9 @@
       <c r="C129" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -2958,7 +3222,9 @@
       <c r="C130" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -2978,7 +3244,9 @@
       <c r="C131" s="1">
         <v>-1.32576E-11</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -2998,7 +3266,9 @@
       <c r="C132" s="1">
         <v>3.5681499999999999E-12</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -3018,7 +3288,9 @@
       <c r="C133" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -3038,7 +3310,9 @@
       <c r="C134" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3058,7 +3332,9 @@
       <c r="C135" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3078,7 +3354,9 @@
       <c r="C136" s="1">
         <v>-2.1897899999999999E-11</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3098,7 +3376,9 @@
       <c r="C137" s="1">
         <v>2.65863E-12</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3118,7 +3398,9 @@
       <c r="C138" s="1">
         <v>-5.9816100000000004E-12</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3138,7 +3420,9 @@
       <c r="C139" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3158,7 +3442,9 @@
       <c r="C140" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3178,7 +3464,9 @@
       <c r="C141" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3198,7 +3486,9 @@
       <c r="C142" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3218,7 +3508,9 @@
       <c r="C143" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3238,7 +3530,9 @@
       <c r="C144" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3258,7 +3552,9 @@
       <c r="C145" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3278,7 +3574,9 @@
       <c r="C146" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3298,7 +3596,9 @@
       <c r="C147" s="1">
         <v>9.93459E-12</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3318,7 +3618,9 @@
       <c r="C148" s="1">
         <v>1.31179E-11</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3338,7 +3640,9 @@
       <c r="C149" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3358,7 +3662,9 @@
       <c r="C150" s="1">
         <v>-9.7936199999999992E-13</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3378,7 +3684,9 @@
       <c r="C151" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3398,7 +3706,9 @@
       <c r="C152" s="1">
         <v>6.7513900000000004E-12</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3418,7 +3728,9 @@
       <c r="C153" s="1">
         <v>1.44822E-11</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3438,7 +3750,9 @@
       <c r="C154" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -3458,7 +3772,9 @@
       <c r="C155" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3478,7 +3794,9 @@
       <c r="C156" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -3498,7 +3816,9 @@
       <c r="C157" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -3518,7 +3838,9 @@
       <c r="C158" s="1">
         <v>5.3871399999999996E-12</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -3538,7 +3860,9 @@
       <c r="C159" s="1">
         <v>-5.0721099999999999E-12</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -3558,7 +3882,9 @@
       <c r="C160" s="1">
         <v>-5.9816100000000004E-12</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -3578,7 +3904,9 @@
       <c r="C161" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -3598,7 +3926,9 @@
       <c r="C162" s="1">
         <v>1.5846399999999998E-11</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -3618,7 +3948,9 @@
       <c r="C163" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -3638,7 +3970,9 @@
       <c r="C164" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -3658,7 +3992,9 @@
       <c r="C165" s="1">
         <v>-6.8911100000000001E-12</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -3678,7 +4014,9 @@
       <c r="C166" s="1">
         <v>-7.3458600000000004E-12</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -3698,7 +4036,9 @@
       <c r="C167" s="1">
         <v>-1.7350299999999999E-11</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -3718,7 +4058,9 @@
       <c r="C168" s="1">
         <v>5.8418899999999999E-12</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -3738,7 +4080,9 @@
       <c r="C169" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -3758,7 +4102,9 @@
       <c r="C170" s="1">
         <v>-6.8911100000000001E-12</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -3778,7 +4124,9 @@
       <c r="C171" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -3798,7 +4146,9 @@
       <c r="C172" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -3818,7 +4168,9 @@
       <c r="C173" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -3838,7 +4190,9 @@
       <c r="C174" s="1">
         <v>-1.5531300000000001E-11</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -3858,7 +4212,9 @@
       <c r="C175" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D175" s="1"/>
+      <c r="D175" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -3878,7 +4234,9 @@
       <c r="C176" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -3898,7 +4256,9 @@
       <c r="C177" s="1">
         <v>-9.6196099999999992E-12</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -3918,7 +4278,9 @@
       <c r="C178" s="1">
         <v>6.2965900000000003E-12</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -3938,7 +4300,9 @@
       <c r="C179" s="1">
         <v>-2.0078900000000002E-11</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -3958,7 +4322,9 @@
       <c r="C180" s="1">
         <v>-1.37124E-11</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -3978,7 +4344,9 @@
       <c r="C181" s="1">
         <v>-1.1438599999999999E-11</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -3998,7 +4366,9 @@
       <c r="C182" s="1">
         <v>-1.32576E-11</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -4018,7 +4388,9 @@
       <c r="C183" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -4038,7 +4410,9 @@
       <c r="C184" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -4058,7 +4432,9 @@
       <c r="C185" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -4078,7 +4454,9 @@
       <c r="C186" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -4098,7 +4476,9 @@
       <c r="C187" s="1">
         <v>-1.0074400000000001E-11</v>
       </c>
-      <c r="D187" s="1"/>
+      <c r="D187" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -4118,7 +4498,9 @@
       <c r="C188" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -4138,7 +4520,9 @@
       <c r="C189" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -4158,7 +4542,9 @@
       <c r="C190" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -4178,7 +4564,9 @@
       <c r="C191" s="1">
         <v>-1.0074400000000001E-11</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -4198,7 +4586,9 @@
       <c r="C192" s="1">
         <v>-1.32576E-11</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -4218,7 +4608,9 @@
       <c r="C193" s="1">
         <v>-1.37124E-11</v>
       </c>
-      <c r="D193" s="1"/>
+      <c r="D193" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4238,7 +4630,9 @@
       <c r="C194" s="1">
         <v>-1.23481E-11</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -4258,7 +4652,9 @@
       <c r="C195" s="1">
         <v>-5.9816100000000004E-12</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4278,7 +4674,9 @@
       <c r="C196" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D196" s="1"/>
+      <c r="D196" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -4298,7 +4696,9 @@
       <c r="C197" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -4318,7 +4718,9 @@
       <c r="C198" s="1">
         <v>-1.09839E-11</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -4338,7 +4740,9 @@
       <c r="C199" s="1">
         <v>-1.32576E-11</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -4358,7 +4762,9 @@
       <c r="C200" s="1">
         <v>-1.8259800000000001E-11</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -4378,7 +4784,9 @@
       <c r="C201" s="1">
         <v>-1.0074400000000001E-11</v>
       </c>
-      <c r="D201" s="1"/>
+      <c r="D201" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -4398,7 +4806,9 @@
       <c r="C202" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -4418,7 +4828,9 @@
       <c r="C203" s="1">
         <v>-1.1438599999999999E-11</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -4438,7 +4850,9 @@
       <c r="C204" s="1">
         <v>-1.2802900000000001E-11</v>
       </c>
-      <c r="D204" s="1"/>
+      <c r="D204" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -4458,7 +4872,9 @@
       <c r="C205" s="1">
         <v>-7.8006200000000007E-12</v>
       </c>
-      <c r="D205" s="1"/>
+      <c r="D205" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -4478,7 +4894,9 @@
       <c r="C206" s="1">
         <v>1.31179E-11</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -4498,7 +4916,9 @@
       <c r="C207" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -4518,7 +4938,9 @@
       <c r="C208" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -4538,7 +4960,9 @@
       <c r="C209" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D209" s="1"/>
+      <c r="D209" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -4558,7 +4982,9 @@
       <c r="C210" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D210" s="1"/>
+      <c r="D210" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -4578,7 +5004,9 @@
       <c r="C211" s="1">
         <v>-6.8911100000000001E-12</v>
       </c>
-      <c r="D211" s="1"/>
+      <c r="D211" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -4598,7 +5026,9 @@
       <c r="C212" s="1">
         <v>1.26632E-11</v>
       </c>
-      <c r="D212" s="1"/>
+      <c r="D212" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -4618,7 +5048,9 @@
       <c r="C213" s="1">
         <v>1.03894E-11</v>
       </c>
-      <c r="D213" s="1"/>
+      <c r="D213" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -4638,7 +5070,9 @@
       <c r="C214" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D214" s="1"/>
+      <c r="D214" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -4658,7 +5092,9 @@
       <c r="C215" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D215" s="1"/>
+      <c r="D215" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -4678,7 +5114,9 @@
       <c r="C216" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D216" s="1"/>
+      <c r="D216" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -4698,7 +5136,9 @@
       <c r="C217" s="1">
         <v>-1.32576E-11</v>
       </c>
-      <c r="D217" s="1"/>
+      <c r="D217" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -4718,7 +5158,9 @@
       <c r="C218" s="1">
         <v>5.3871399999999996E-12</v>
       </c>
-      <c r="D218" s="1"/>
+      <c r="D218" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -4738,7 +5180,9 @@
       <c r="C219" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D219" s="1"/>
+      <c r="D219" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -4758,7 +5202,9 @@
       <c r="C220" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D220" s="1"/>
+      <c r="D220" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -4778,7 +5224,9 @@
       <c r="C221" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D221" s="1"/>
+      <c r="D221" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -4798,7 +5246,9 @@
       <c r="C222" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D222" s="1"/>
+      <c r="D222" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -4818,7 +5268,9 @@
       <c r="C223" s="1">
         <v>2.2038800000000001E-12</v>
       </c>
-      <c r="D223" s="1"/>
+      <c r="D223" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -4838,7 +5290,9 @@
       <c r="C224" s="1">
         <v>2.2038800000000001E-12</v>
       </c>
-      <c r="D224" s="1"/>
+      <c r="D224" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -4858,7 +5312,9 @@
       <c r="C225" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D225" s="1"/>
+      <c r="D225" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -4878,7 +5334,9 @@
       <c r="C226" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D226" s="1"/>
+      <c r="D226" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -4898,7 +5356,9 @@
       <c r="C227" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D227" s="1"/>
+      <c r="D227" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -4918,7 +5378,9 @@
       <c r="C228" s="1">
         <v>1.4936899999999999E-11</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D228" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -4938,7 +5400,9 @@
       <c r="C229" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D229" s="1"/>
+      <c r="D229" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -4958,7 +5422,9 @@
       <c r="C230" s="1">
         <v>1.1298900000000001E-11</v>
       </c>
-      <c r="D230" s="1"/>
+      <c r="D230" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -4978,7 +5444,9 @@
       <c r="C231" s="1">
         <v>1.17537E-11</v>
       </c>
-      <c r="D231" s="1"/>
+      <c r="D231" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -4998,7 +5466,9 @@
       <c r="C232" s="1">
         <v>1.4027400000000001E-11</v>
       </c>
-      <c r="D232" s="1"/>
+      <c r="D232" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -5018,7 +5488,9 @@
       <c r="C233" s="1">
         <v>6.7513900000000004E-12</v>
       </c>
-      <c r="D233" s="1"/>
+      <c r="D233" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -5038,7 +5510,9 @@
       <c r="C234" s="1">
         <v>2.17581E-11</v>
       </c>
-      <c r="D234" s="1"/>
+      <c r="D234" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -5058,7 +5532,9 @@
       <c r="C235" s="1">
         <v>1.7210599999999999E-11</v>
       </c>
-      <c r="D235" s="1"/>
+      <c r="D235" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -5078,7 +5554,9 @@
       <c r="C236" s="1">
         <v>1.5391600000000001E-11</v>
       </c>
-      <c r="D236" s="1"/>
+      <c r="D236" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -5098,7 +5576,9 @@
       <c r="C237" s="1">
         <v>1.9939099999999999E-11</v>
       </c>
-      <c r="D237" s="1"/>
+      <c r="D237" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -5118,7 +5598,9 @@
       <c r="C238" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D238" s="1"/>
+      <c r="D238" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -5138,7 +5620,9 @@
       <c r="C239" s="1">
         <v>3.5400599999999999E-11</v>
       </c>
-      <c r="D239" s="1"/>
+      <c r="D239" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -5158,7 +5642,9 @@
       <c r="C240" s="1">
         <v>1.31179E-11</v>
       </c>
-      <c r="D240" s="1"/>
+      <c r="D240" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -5178,7 +5664,9 @@
       <c r="C241" s="1">
         <v>2.63057E-11</v>
       </c>
-      <c r="D241" s="1"/>
+      <c r="D241" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -5198,7 +5686,9 @@
       <c r="C242" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D242" s="1"/>
+      <c r="D242" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -5218,7 +5708,9 @@
       <c r="C243" s="1">
         <v>2.22129E-11</v>
       </c>
-      <c r="D243" s="1"/>
+      <c r="D243" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -5238,7 +5730,9 @@
       <c r="C244" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D244" s="1"/>
+      <c r="D244" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -5258,7 +5752,9 @@
       <c r="C245" s="1">
         <v>3.7674399999999998E-11</v>
       </c>
-      <c r="D245" s="1"/>
+      <c r="D245" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -5278,7 +5774,9 @@
       <c r="C246" s="1">
         <v>2.2667599999999998E-11</v>
       </c>
-      <c r="D246" s="1"/>
+      <c r="D246" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -5298,7 +5796,9 @@
       <c r="C247" s="1">
         <v>2.9488899999999998E-11</v>
       </c>
-      <c r="D247" s="1"/>
+      <c r="D247" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -5318,7 +5818,9 @@
       <c r="C248" s="1">
         <v>2.5396200000000001E-11</v>
       </c>
-      <c r="D248" s="1"/>
+      <c r="D248" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -5338,7 +5840,9 @@
       <c r="C249" s="1">
         <v>1.9939099999999999E-11</v>
       </c>
-      <c r="D249" s="1"/>
+      <c r="D249" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -5358,7 +5862,9 @@
       <c r="C250" s="1">
         <v>3.58554E-11</v>
       </c>
-      <c r="D250" s="1"/>
+      <c r="D250" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -5378,7 +5884,9 @@
       <c r="C251" s="1">
         <v>1.5391600000000001E-11</v>
       </c>
-      <c r="D251" s="1"/>
+      <c r="D251" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -5398,7 +5906,9 @@
       <c r="C252" s="1">
         <v>2.2667599999999998E-11</v>
       </c>
-      <c r="D252" s="1"/>
+      <c r="D252" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -5418,7 +5928,9 @@
       <c r="C253" s="1">
         <v>2.17581E-11</v>
       </c>
-      <c r="D253" s="1"/>
+      <c r="D253" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -5438,7 +5950,9 @@
       <c r="C254" s="1">
         <v>2.4031799999999999E-11</v>
       </c>
-      <c r="D254" s="1"/>
+      <c r="D254" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -5458,7 +5972,9 @@
       <c r="C255" s="1">
         <v>6.2965900000000003E-12</v>
       </c>
-      <c r="D255" s="1"/>
+      <c r="D255" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -5478,7 +5994,9 @@
       <c r="C256" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D256" s="1"/>
+      <c r="D256" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -5498,7 +6016,9 @@
       <c r="C257" s="1">
         <v>9.4798900000000003E-12</v>
       </c>
-      <c r="D257" s="1"/>
+      <c r="D257" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -5518,7 +6038,9 @@
       <c r="C258" s="1">
         <v>5.3871399999999996E-12</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -5538,7 +6060,9 @@
       <c r="C259" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D259" s="1"/>
+      <c r="D259" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -5558,7 +6082,9 @@
       <c r="C260" s="1">
         <v>6.7513900000000004E-12</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -5578,7 +6104,9 @@
       <c r="C261" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D261" s="1"/>
+      <c r="D261" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -5598,7 +6126,9 @@
       <c r="C262" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D262" s="1"/>
+      <c r="D262" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -5618,7 +6148,9 @@
       <c r="C263" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D263" s="1"/>
+      <c r="D263" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -5638,7 +6170,9 @@
       <c r="C264" s="1">
         <v>-1.4621799999999999E-11</v>
       </c>
-      <c r="D264" s="1"/>
+      <c r="D264" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -5658,7 +6192,9 @@
       <c r="C265" s="1">
         <v>-1.78051E-11</v>
       </c>
-      <c r="D265" s="1"/>
+      <c r="D265" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -5678,7 +6214,9 @@
       <c r="C266" s="1">
         <v>-2.9173799999999998E-11</v>
       </c>
-      <c r="D266" s="1"/>
+      <c r="D266" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -5698,7 +6236,9 @@
       <c r="C267" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D267" s="1"/>
+      <c r="D267" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -5718,7 +6258,9 @@
       <c r="C268" s="1">
         <v>-1.9624100000000001E-11</v>
       </c>
-      <c r="D268" s="1"/>
+      <c r="D268" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -5738,7 +6280,9 @@
       <c r="C269" s="1">
         <v>-2.73548E-11</v>
       </c>
-      <c r="D269" s="1"/>
+      <c r="D269" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -5758,7 +6302,9 @@
       <c r="C270" s="1">
         <v>-2.8719099999999999E-11</v>
       </c>
-      <c r="D270" s="1"/>
+      <c r="D270" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -5778,7 +6324,9 @@
       <c r="C271" s="1">
         <v>-2.1897899999999999E-11</v>
       </c>
-      <c r="D271" s="1"/>
+      <c r="D271" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -5798,7 +6346,9 @@
       <c r="C272" s="1">
         <v>-4.4635300000000001E-11</v>
       </c>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -5818,7 +6368,9 @@
       <c r="C273" s="1">
         <v>-5.0547100000000002E-11</v>
       </c>
-      <c r="D273" s="1"/>
+      <c r="D273" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -5838,7 +6390,9 @@
       <c r="C274" s="1">
         <v>-3.59951E-11</v>
       </c>
-      <c r="D274" s="1"/>
+      <c r="D274" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -5858,7 +6412,9 @@
       <c r="C275" s="1">
         <v>-3.6904600000000003E-11</v>
       </c>
-      <c r="D275" s="1"/>
+      <c r="D275" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -5878,7 +6434,9 @@
       <c r="C276" s="1">
         <v>-3.6449900000000001E-11</v>
       </c>
-      <c r="D276" s="1"/>
+      <c r="D276" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -5898,7 +6456,9 @@
       <c r="C277" s="1">
         <v>-3.8268899999999999E-11</v>
       </c>
-      <c r="D277" s="1"/>
+      <c r="D277" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -5918,7 +6478,9 @@
       <c r="C278" s="1">
         <v>-2.2352600000000001E-11</v>
       </c>
-      <c r="D278" s="1"/>
+      <c r="D278" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -5938,7 +6500,9 @@
       <c r="C279" s="1">
         <v>-4.69091E-11</v>
       </c>
-      <c r="D279" s="1"/>
+      <c r="D279" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -5958,7 +6522,9 @@
       <c r="C280" s="1">
         <v>-3.32667E-11</v>
       </c>
-      <c r="D280" s="1"/>
+      <c r="D280" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -5978,7 +6544,9 @@
       <c r="C281" s="1">
         <v>-2.8264299999999999E-11</v>
       </c>
-      <c r="D281" s="1"/>
+      <c r="D281" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -5998,7 +6566,9 @@
       <c r="C282" s="1">
         <v>-1.6895600000000001E-11</v>
       </c>
-      <c r="D282" s="1"/>
+      <c r="D282" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -6018,7 +6588,9 @@
       <c r="C283" s="1">
         <v>-3.4176100000000003E-11</v>
       </c>
-      <c r="D283" s="1"/>
+      <c r="D283" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -6038,7 +6610,9 @@
       <c r="C284" s="1">
         <v>-2.6900099999999998E-11</v>
       </c>
-      <c r="D284" s="1"/>
+      <c r="D284" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -6058,7 +6632,9 @@
       <c r="C285" s="1">
         <v>-2.32621E-11</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -6078,7 +6654,9 @@
       <c r="C286" s="1">
         <v>-1.9169399999999999E-11</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -6098,7 +6676,9 @@
       <c r="C287" s="1">
         <v>-2.05336E-11</v>
       </c>
-      <c r="D287" s="1"/>
+      <c r="D287" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -6118,7 +6698,9 @@
       <c r="C288" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D288" s="1"/>
+      <c r="D288" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -6138,7 +6720,9 @@
       <c r="C289" s="1">
         <v>-1.78051E-11</v>
       </c>
-      <c r="D289" s="1"/>
+      <c r="D289" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -6158,7 +6742,9 @@
       <c r="C290" s="1">
         <v>-2.5535799999999999E-11</v>
       </c>
-      <c r="D290" s="1"/>
+      <c r="D290" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -6178,7 +6764,9 @@
       <c r="C291" s="1">
         <v>-8.2553599999999993E-12</v>
       </c>
-      <c r="D291" s="1"/>
+      <c r="D291" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -6198,7 +6786,9 @@
       <c r="C292" s="1">
         <v>-1.0074400000000001E-11</v>
       </c>
-      <c r="D292" s="1"/>
+      <c r="D292" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -6218,7 +6808,9 @@
       <c r="C293" s="1">
         <v>-1.05291E-11</v>
       </c>
-      <c r="D293" s="1"/>
+      <c r="D293" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -6238,7 +6830,9 @@
       <c r="C294" s="1">
         <v>2.8124700000000001E-11</v>
       </c>
-      <c r="D294" s="1"/>
+      <c r="D294" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -6258,7 +6852,9 @@
       <c r="C295" s="1">
         <v>4.0228999999999998E-12</v>
       </c>
-      <c r="D295" s="1"/>
+      <c r="D295" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -6278,7 +6874,9 @@
       <c r="C296" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D296" s="1"/>
+      <c r="D296" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -6298,7 +6896,9 @@
       <c r="C297" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D297" s="1"/>
+      <c r="D297" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -6318,7 +6918,9 @@
       <c r="C298" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -6338,7 +6940,9 @@
       <c r="C299" s="1">
         <v>-9.7936199999999992E-13</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -6358,7 +6962,9 @@
       <c r="C300" s="1">
         <v>1.26632E-11</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D300" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -6378,7 +6984,9 @@
       <c r="C301" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D301" s="1"/>
+      <c r="D301" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -6398,7 +7006,9 @@
       <c r="C302" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D302" s="1"/>
+      <c r="D302" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -6418,7 +7028,9 @@
       <c r="C303" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D303" s="1"/>
+      <c r="D303" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -6438,7 +7050,9 @@
       <c r="C304" s="1">
         <v>4.0228999999999998E-12</v>
       </c>
-      <c r="D304" s="1"/>
+      <c r="D304" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -6458,7 +7072,9 @@
       <c r="C305" s="1">
         <v>6.7513900000000004E-12</v>
       </c>
-      <c r="D305" s="1"/>
+      <c r="D305" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -6478,7 +7094,9 @@
       <c r="C306" s="1">
         <v>3.5681499999999999E-12</v>
       </c>
-      <c r="D306" s="1"/>
+      <c r="D306" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -6498,7 +7116,9 @@
       <c r="C307" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D307" s="1"/>
+      <c r="D307" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -6518,7 +7138,9 @@
       <c r="C308" s="1">
         <v>-3.7078599999999999E-12</v>
       </c>
-      <c r="D308" s="1"/>
+      <c r="D308" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -6538,7 +7160,9 @@
       <c r="C309" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D309" s="1"/>
+      <c r="D309" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -6558,7 +7182,9 @@
       <c r="C310" s="1">
         <v>-1.6895600000000001E-11</v>
       </c>
-      <c r="D310" s="1"/>
+      <c r="D310" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -6578,7 +7204,9 @@
       <c r="C311" s="1">
         <v>1.63011E-11</v>
       </c>
-      <c r="D311" s="1"/>
+      <c r="D311" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -6598,7 +7226,9 @@
       <c r="C312" s="1">
         <v>-6.8911100000000001E-12</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -6618,7 +7248,9 @@
       <c r="C313" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D313" s="1"/>
+      <c r="D313" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -6638,7 +7270,9 @@
       <c r="C314" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D314" s="1"/>
+      <c r="D314" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -6658,7 +7292,9 @@
       <c r="C315" s="1">
         <v>-6.4363599999999998E-12</v>
       </c>
-      <c r="D315" s="1"/>
+      <c r="D315" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -6678,7 +7314,9 @@
       <c r="C316" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D316" s="1"/>
+      <c r="D316" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -6698,7 +7336,9 @@
       <c r="C317" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D317" s="1"/>
+      <c r="D317" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -6718,7 +7358,9 @@
       <c r="C318" s="1">
         <v>2.65863E-12</v>
       </c>
-      <c r="D318" s="1"/>
+      <c r="D318" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -6738,7 +7380,9 @@
       <c r="C319" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D319" s="1"/>
+      <c r="D319" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -6758,7 +7402,9 @@
       <c r="C320" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D320" s="1"/>
+      <c r="D320" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -6778,7 +7424,9 @@
       <c r="C321" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D321" s="1"/>
+      <c r="D321" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -6798,7 +7446,9 @@
       <c r="C322" s="1">
         <v>-1.6895600000000001E-11</v>
       </c>
-      <c r="D322" s="1"/>
+      <c r="D322" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -6818,7 +7468,9 @@
       <c r="C323" s="1">
         <v>1.4936899999999999E-11</v>
       </c>
-      <c r="D323" s="1"/>
+      <c r="D323" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -6838,7 +7490,9 @@
       <c r="C324" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -6858,7 +7512,9 @@
       <c r="C325" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D325" s="1"/>
+      <c r="D325" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -6878,7 +7534,9 @@
       <c r="C326" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D326" s="1"/>
+      <c r="D326" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -6898,7 +7556,9 @@
       <c r="C327" s="1">
         <v>-4.6173599999999996E-12</v>
       </c>
-      <c r="D327" s="1"/>
+      <c r="D327" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -6918,7 +7578,9 @@
       <c r="C328" s="1">
         <v>-2.7983599999999998E-12</v>
       </c>
-      <c r="D328" s="1"/>
+      <c r="D328" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -6938,7 +7600,9 @@
       <c r="C329" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D329" s="1"/>
+      <c r="D329" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -6958,7 +7622,9 @@
       <c r="C330" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D330" s="1"/>
+      <c r="D330" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -6978,7 +7644,9 @@
       <c r="C331" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D331" s="1"/>
+      <c r="D331" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -6998,7 +7666,9 @@
       <c r="C332" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D332" s="1"/>
+      <c r="D332" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -7018,7 +7688,9 @@
       <c r="C333" s="1">
         <v>-1.4167099999999999E-11</v>
       </c>
-      <c r="D333" s="1"/>
+      <c r="D333" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -7038,7 +7710,9 @@
       <c r="C334" s="1">
         <v>7.20609E-12</v>
       </c>
-      <c r="D334" s="1"/>
+      <c r="D334" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -7058,7 +7732,9 @@
       <c r="C335" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D335" s="1"/>
+      <c r="D335" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -7078,7 +7754,9 @@
       <c r="C336" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D336" s="1"/>
+      <c r="D336" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -7098,7 +7776,9 @@
       <c r="C337" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -7118,7 +7798,9 @@
       <c r="C338" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D338" s="1"/>
+      <c r="D338" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -7138,7 +7820,9 @@
       <c r="C339" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D339" s="1"/>
+      <c r="D339" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -7158,7 +7842,9 @@
       <c r="C340" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D340" s="1"/>
+      <c r="D340" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -7178,7 +7864,9 @@
       <c r="C341" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D341" s="1"/>
+      <c r="D341" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -7198,7 +7886,9 @@
       <c r="C342" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D342" s="1"/>
+      <c r="D342" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -7218,7 +7908,9 @@
       <c r="C343" s="1">
         <v>3.84888E-13</v>
       </c>
-      <c r="D343" s="1"/>
+      <c r="D343" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -7238,7 +7930,9 @@
       <c r="C344" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D344" s="1"/>
+      <c r="D344" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -7258,7 +7952,9 @@
       <c r="C345" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D345" s="1"/>
+      <c r="D345" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -7278,7 +7974,9 @@
       <c r="C346" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D346" s="1"/>
+      <c r="D346" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -7298,7 +7996,9 @@
       <c r="C347" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D347" s="1"/>
+      <c r="D347" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -7318,7 +8018,9 @@
       <c r="C348" s="1">
         <v>5.3871399999999996E-12</v>
       </c>
-      <c r="D348" s="1"/>
+      <c r="D348" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -7338,7 +8040,9 @@
       <c r="C349" s="1">
         <v>-8.7101100000000003E-12</v>
       </c>
-      <c r="D349" s="1"/>
+      <c r="D349" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -7358,7 +8062,9 @@
       <c r="C350" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -7378,7 +8084,9 @@
       <c r="C351" s="1">
         <v>2.65863E-12</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -7398,7 +8106,9 @@
       <c r="C352" s="1">
         <v>3.5681499999999999E-12</v>
       </c>
-      <c r="D352" s="1"/>
+      <c r="D352" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -7418,7 +8128,9 @@
       <c r="C353" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D353" s="1"/>
+      <c r="D353" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -7438,7 +8150,9 @@
       <c r="C354" s="1">
         <v>1.03894E-11</v>
       </c>
-      <c r="D354" s="1"/>
+      <c r="D354" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -7458,7 +8172,9 @@
       <c r="C355" s="1">
         <v>1.74913E-12</v>
       </c>
-      <c r="D355" s="1"/>
+      <c r="D355" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -7478,7 +8194,9 @@
       <c r="C356" s="1">
         <v>9.0250899999999995E-12</v>
       </c>
-      <c r="D356" s="1"/>
+      <c r="D356" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -7498,7 +8216,9 @@
       <c r="C357" s="1">
         <v>4.9323900000000002E-12</v>
       </c>
-      <c r="D357" s="1"/>
+      <c r="D357" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -7518,7 +8238,9 @@
       <c r="C358" s="1">
         <v>5.8418899999999999E-12</v>
       </c>
-      <c r="D358" s="1"/>
+      <c r="D358" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -7538,7 +8260,9 @@
       <c r="C359" s="1">
         <v>7.6608899999999993E-12</v>
       </c>
-      <c r="D359" s="1"/>
+      <c r="D359" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -7558,7 +8282,9 @@
       <c r="C360" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D360" s="1"/>
+      <c r="D360" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -7578,7 +8304,9 @@
       <c r="C361" s="1">
         <v>-2.3436099999999999E-12</v>
       </c>
-      <c r="D361" s="1"/>
+      <c r="D361" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -7598,7 +8326,9 @@
       <c r="C362" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D362" s="1"/>
+      <c r="D362" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -7618,7 +8348,9 @@
       <c r="C363" s="1">
         <v>7.20609E-12</v>
       </c>
-      <c r="D363" s="1"/>
+      <c r="D363" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -7638,7 +8370,9 @@
       <c r="C364" s="1">
         <v>6.2965900000000003E-12</v>
       </c>
-      <c r="D364" s="1"/>
+      <c r="D364" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -7658,7 +8392,9 @@
       <c r="C365" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D365" s="1"/>
+      <c r="D365" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -7678,7 +8414,9 @@
       <c r="C366" s="1">
         <v>1.4027400000000001E-11</v>
       </c>
-      <c r="D366" s="1"/>
+      <c r="D366" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -7698,7 +8436,9 @@
       <c r="C367" s="1">
         <v>-6.9862100000000005E-14</v>
       </c>
-      <c r="D367" s="1"/>
+      <c r="D367" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -7718,7 +8458,9 @@
       <c r="C368" s="1">
         <v>9.4798900000000003E-12</v>
       </c>
-      <c r="D368" s="1"/>
+      <c r="D368" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -7738,7 +8480,9 @@
       <c r="C369" s="1">
         <v>1.4027400000000001E-11</v>
       </c>
-      <c r="D369" s="1"/>
+      <c r="D369" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -7758,7 +8502,9 @@
       <c r="C370" s="1">
         <v>1.26632E-11</v>
       </c>
-      <c r="D370" s="1"/>
+      <c r="D370" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
@@ -7778,7 +8524,9 @@
       <c r="C371" s="1">
         <v>2.0848600000000001E-11</v>
       </c>
-      <c r="D371" s="1"/>
+      <c r="D371" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -7798,7 +8546,9 @@
       <c r="C372" s="1">
         <v>2.63057E-11</v>
       </c>
-      <c r="D372" s="1"/>
+      <c r="D372" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -7818,7 +8568,9 @@
       <c r="C373" s="1">
         <v>2.0393899999999999E-11</v>
       </c>
-      <c r="D373" s="1"/>
+      <c r="D373" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -7838,7 +8590,9 @@
       <c r="C374" s="1">
         <v>1.3572699999999999E-11</v>
       </c>
-      <c r="D374" s="1"/>
+      <c r="D374" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -7858,7 +8612,9 @@
       <c r="C375" s="1">
         <v>1.63011E-11</v>
       </c>
-      <c r="D375" s="1"/>
+      <c r="D375" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -7878,7 +8634,9 @@
       <c r="C376" s="1">
         <v>2.22129E-11</v>
       </c>
-      <c r="D376" s="1"/>
+      <c r="D376" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -7898,7 +8656,9 @@
       <c r="C377" s="1">
         <v>2.17581E-11</v>
       </c>
-      <c r="D377" s="1"/>
+      <c r="D377" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -7918,7 +8678,9 @@
       <c r="C378" s="1">
         <v>2.3122399999999999E-11</v>
       </c>
-      <c r="D378" s="1"/>
+      <c r="D378" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -7938,7 +8700,9 @@
       <c r="C379" s="1">
         <v>2.0393899999999999E-11</v>
       </c>
-      <c r="D379" s="1"/>
+      <c r="D379" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -7958,7 +8722,9 @@
       <c r="C380" s="1">
         <v>1.8120100000000001E-11</v>
       </c>
-      <c r="D380" s="1"/>
+      <c r="D380" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -7978,7 +8744,9 @@
       <c r="C381" s="1">
         <v>2.17581E-11</v>
       </c>
-      <c r="D381" s="1"/>
+      <c r="D381" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -7998,7 +8766,9 @@
       <c r="C382" s="1">
         <v>3.9493400000000002E-11</v>
       </c>
-      <c r="D382" s="1"/>
+      <c r="D382" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -8018,7 +8788,9 @@
       <c r="C383" s="1">
         <v>2.6760400000000001E-11</v>
       </c>
-      <c r="D383" s="1"/>
+      <c r="D383" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -8038,7 +8810,9 @@
       <c r="C384" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D384" s="1"/>
+      <c r="D384" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -8058,7 +8832,9 @@
       <c r="C385" s="1">
         <v>2.5850899999999999E-11</v>
       </c>
-      <c r="D385" s="1"/>
+      <c r="D385" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -8078,7 +8854,9 @@
       <c r="C386" s="1">
         <v>2.5850899999999999E-11</v>
       </c>
-      <c r="D386" s="1"/>
+      <c r="D386" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -8098,7 +8876,9 @@
       <c r="C387" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D387" s="1"/>
+      <c r="D387" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -8118,7 +8898,9 @@
       <c r="C388" s="1">
         <v>3.6764900000000002E-11</v>
       </c>
-      <c r="D388" s="1"/>
+      <c r="D388" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -8138,7 +8920,9 @@
       <c r="C389" s="1">
         <v>2.5396200000000001E-11</v>
       </c>
-      <c r="D389" s="1"/>
+      <c r="D389" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -8158,7 +8942,9 @@
       <c r="C390" s="1">
         <v>2.8124700000000001E-11</v>
       </c>
-      <c r="D390" s="1"/>
+      <c r="D390" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -8178,7 +8964,9 @@
       <c r="C391" s="1">
         <v>3.03984E-11</v>
       </c>
-      <c r="D391" s="1"/>
+      <c r="D391" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -8198,7 +8986,9 @@
       <c r="C392" s="1">
         <v>3.0853200000000001E-11</v>
       </c>
-      <c r="D392" s="1"/>
+      <c r="D392" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -8218,7 +9008,9 @@
       <c r="C393" s="1">
         <v>3.6764900000000002E-11</v>
       </c>
-      <c r="D393" s="1"/>
+      <c r="D393" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -8238,7 +9030,9 @@
       <c r="C394" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D394" s="1"/>
+      <c r="D394" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
@@ -8258,7 +9052,9 @@
       <c r="C395" s="1">
         <v>3.2672199999999999E-11</v>
       </c>
-      <c r="D395" s="1"/>
+      <c r="D395" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
@@ -8278,7 +9074,9 @@
       <c r="C396" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D396" s="1"/>
+      <c r="D396" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
@@ -8298,7 +9096,9 @@
       <c r="C397" s="1">
         <v>3.0853200000000001E-11</v>
       </c>
-      <c r="D397" s="1"/>
+      <c r="D397" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
@@ -8318,7 +9118,9 @@
       <c r="C398" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D398" s="1"/>
+      <c r="D398" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
@@ -8338,7 +9140,9 @@
       <c r="C399" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D399" s="1"/>
+      <c r="D399" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
@@ -8358,7 +9162,9 @@
       <c r="C400" s="1">
         <v>4.1767100000000001E-11</v>
       </c>
-      <c r="D400" s="1"/>
+      <c r="D400" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
@@ -8378,7 +9184,9 @@
       <c r="C401" s="1">
         <v>3.4945899999999998E-11</v>
       </c>
-      <c r="D401" s="1"/>
+      <c r="D401" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
@@ -8398,7 +9206,9 @@
       <c r="C402" s="1">
         <v>3.4036400000000002E-11</v>
       </c>
-      <c r="D402" s="1"/>
+      <c r="D402" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
@@ -8418,7 +9228,9 @@
       <c r="C403" s="1">
         <v>4.4495600000000001E-11</v>
       </c>
-      <c r="D403" s="1"/>
+      <c r="D403" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
@@ -8438,7 +9250,9 @@
       <c r="C404" s="1">
         <v>3.6310100000000001E-11</v>
       </c>
-      <c r="D404" s="1"/>
+      <c r="D404" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -8458,7 +9272,9 @@
       <c r="C405" s="1">
         <v>2.9943699999999999E-11</v>
       </c>
-      <c r="D405" s="1"/>
+      <c r="D405" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
@@ -8478,7 +9294,9 @@
       <c r="C406" s="1">
         <v>3.7674399999999998E-11</v>
       </c>
-      <c r="D406" s="1"/>
+      <c r="D406" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
@@ -8498,7 +9316,9 @@
       <c r="C407" s="1">
         <v>3.2217399999999998E-11</v>
       </c>
-      <c r="D407" s="1"/>
+      <c r="D407" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
@@ -8518,7 +9338,9 @@
       <c r="C408" s="1">
         <v>3.5400599999999999E-11</v>
       </c>
-      <c r="D408" s="1"/>
+      <c r="D408" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
@@ -8538,7 +9360,9 @@
       <c r="C409" s="1">
         <v>1.17537E-11</v>
       </c>
-      <c r="D409" s="1"/>
+      <c r="D409" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -8558,7 +9382,9 @@
       <c r="C410" s="1">
         <v>2.9943699999999999E-11</v>
       </c>
-      <c r="D410" s="1"/>
+      <c r="D410" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
@@ -8578,7 +9404,9 @@
       <c r="C411" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D411" s="1"/>
+      <c r="D411" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
@@ -8598,7 +9426,9 @@
       <c r="C412" s="1">
         <v>3.03984E-11</v>
       </c>
-      <c r="D412" s="1"/>
+      <c r="D412" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
@@ -8618,7 +9448,9 @@
       <c r="C413" s="1">
         <v>2.6760400000000001E-11</v>
       </c>
-      <c r="D413" s="1"/>
+      <c r="D413" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
@@ -8638,7 +9470,9 @@
       <c r="C414" s="1">
         <v>3.5400599999999999E-11</v>
       </c>
-      <c r="D414" s="1"/>
+      <c r="D414" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
@@ -8658,7 +9492,9 @@
       <c r="C415" s="1">
         <v>2.9488899999999998E-11</v>
       </c>
-      <c r="D415" s="1"/>
+      <c r="D415" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
@@ -8678,7 +9514,9 @@
       <c r="C416" s="1">
         <v>3.2672199999999999E-11</v>
       </c>
-      <c r="D416" s="1"/>
+      <c r="D416" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
@@ -8698,7 +9536,9 @@
       <c r="C417" s="1">
         <v>1.94844E-11</v>
       </c>
-      <c r="D417" s="1"/>
+      <c r="D417" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
@@ -8718,7 +9558,9 @@
       <c r="C418" s="1">
         <v>1.94844E-11</v>
       </c>
-      <c r="D418" s="1"/>
+      <c r="D418" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
@@ -8738,7 +9580,9 @@
       <c r="C419" s="1">
         <v>1.8574900000000002E-11</v>
       </c>
-      <c r="D419" s="1"/>
+      <c r="D419" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
@@ -8758,7 +9602,9 @@
       <c r="C420" s="1">
         <v>1.4936899999999999E-11</v>
       </c>
-      <c r="D420" s="1"/>
+      <c r="D420" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
@@ -8778,7 +9624,9 @@
       <c r="C421" s="1">
         <v>4.47765E-12</v>
       </c>
-      <c r="D421" s="1"/>
+      <c r="D421" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
@@ -8798,7 +9646,9 @@
       <c r="C422" s="1">
         <v>1.9939099999999999E-11</v>
       </c>
-      <c r="D422" s="1"/>
+      <c r="D422" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
@@ -8818,7 +9668,9 @@
       <c r="C423" s="1">
         <v>7.6608899999999993E-12</v>
       </c>
-      <c r="D423" s="1"/>
+      <c r="D423" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
@@ -8838,7 +9690,9 @@
       <c r="C424" s="1">
         <v>5.8418899999999999E-12</v>
       </c>
-      <c r="D424" s="1"/>
+      <c r="D424" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
@@ -8858,7 +9712,9 @@
       <c r="C425" s="1">
         <v>3.1134E-12</v>
       </c>
-      <c r="D425" s="1"/>
+      <c r="D425" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
@@ -8878,7 +9734,9 @@
       <c r="C426" s="1">
         <v>1.2943899999999999E-12</v>
       </c>
-      <c r="D426" s="1"/>
+      <c r="D426" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
@@ -8898,7 +9756,9 @@
       <c r="C427" s="1">
         <v>8.39638E-13</v>
       </c>
-      <c r="D427" s="1"/>
+      <c r="D427" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
@@ -8918,7 +9778,9 @@
       <c r="C428" s="1">
         <v>-3.2531100000000001E-12</v>
       </c>
-      <c r="D428" s="1"/>
+      <c r="D428" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
@@ -8938,7 +9800,9 @@
       <c r="C429" s="1">
         <v>-7.3458600000000004E-12</v>
       </c>
-      <c r="D429" s="1"/>
+      <c r="D429" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
@@ -8958,7 +9822,9 @@
       <c r="C430" s="1">
         <v>-1.4621799999999999E-11</v>
       </c>
-      <c r="D430" s="1"/>
+      <c r="D430" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
@@ -8978,7 +9844,9 @@
       <c r="C431" s="1">
         <v>-2.5535799999999999E-11</v>
       </c>
-      <c r="D431" s="1"/>
+      <c r="D431" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
@@ -8998,7 +9866,9 @@
       <c r="C432" s="1">
         <v>-2.7809600000000001E-11</v>
       </c>
-      <c r="D432" s="1"/>
+      <c r="D432" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
@@ -9018,7 +9888,9 @@
       <c r="C433" s="1">
         <v>-2.05336E-11</v>
       </c>
-      <c r="D433" s="1"/>
+      <c r="D433" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
@@ -9038,7 +9910,9 @@
       <c r="C434" s="1">
         <v>-3.1902299999999997E-11</v>
       </c>
-      <c r="D434" s="1"/>
+      <c r="D434" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
@@ -9058,7 +9932,9 @@
       <c r="C435" s="1">
         <v>-2.8719099999999999E-11</v>
       </c>
-      <c r="D435" s="1"/>
+      <c r="D435" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
@@ -9078,7 +9954,9 @@
       <c r="C436" s="1">
         <v>-3.5085599999999998E-11</v>
       </c>
-      <c r="D436" s="1"/>
+      <c r="D436" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
@@ -9098,7 +9976,9 @@
       <c r="C437" s="1">
         <v>-4.5544799999999997E-11</v>
       </c>
-      <c r="D437" s="1"/>
+      <c r="D437" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
@@ -9118,7 +9998,9 @@
       <c r="C438" s="1">
         <v>-3.9178400000000001E-11</v>
       </c>
-      <c r="D438" s="1"/>
+      <c r="D438" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
@@ -9138,7 +10020,9 @@
       <c r="C439" s="1">
         <v>-5.3275500000000003E-11</v>
       </c>
-      <c r="D439" s="1"/>
+      <c r="D439" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
@@ -9158,7 +10042,9 @@
       <c r="C440" s="1">
         <v>-5.6913499999999998E-11</v>
       </c>
-      <c r="D440" s="1"/>
+      <c r="D440" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
@@ -9178,7 +10064,9 @@
       <c r="C441" s="1">
         <v>-6.3280199999999999E-11</v>
       </c>
-      <c r="D441" s="1"/>
+      <c r="D441" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
@@ -9198,7 +10086,9 @@
       <c r="C442" s="1">
         <v>-6.9646699999999995E-11</v>
       </c>
-      <c r="D442" s="1"/>
+      <c r="D442" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
@@ -9218,7 +10108,9 @@
       <c r="C443" s="1">
         <v>-7.8741599999999997E-11</v>
       </c>
-      <c r="D443" s="1"/>
+      <c r="D443" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
@@ -9238,7 +10130,9 @@
       <c r="C444" s="1">
         <v>-8.4198599999999997E-11</v>
       </c>
-      <c r="D444" s="1"/>
+      <c r="D444" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
@@ -9258,7 +10152,9 @@
       <c r="C445" s="1">
         <v>-9.0110300000000005E-11</v>
       </c>
-      <c r="D445" s="1"/>
+      <c r="D445" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
@@ -9278,7 +10174,9 @@
       <c r="C446" s="1">
         <v>-1.0056999999999999E-10</v>
       </c>
-      <c r="D446" s="1"/>
+      <c r="D446" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
@@ -9298,7 +10196,9 @@
       <c r="C447" s="1">
         <v>-1.04663E-10</v>
       </c>
-      <c r="D447" s="1"/>
+      <c r="D447" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
@@ -9318,7 +10218,9 @@
       <c r="C448" s="1">
         <v>-1.08301E-10</v>
       </c>
-      <c r="D448" s="1"/>
+      <c r="D448" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
@@ -9338,7 +10240,9 @@
       <c r="C449" s="1">
         <v>-1.31493E-10</v>
       </c>
-      <c r="D449" s="1"/>
+      <c r="D449" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
@@ -9358,7 +10262,9 @@
       <c r="C450" s="1">
         <v>-1.3058400000000001E-10</v>
       </c>
-      <c r="D450" s="1"/>
+      <c r="D450" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
@@ -9378,7 +10284,9 @@
       <c r="C451" s="1">
         <v>-1.4058800000000001E-10</v>
       </c>
-      <c r="D451" s="1"/>
+      <c r="D451" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
@@ -9398,7 +10306,9 @@
       <c r="C452" s="1">
         <v>-1.53776E-10</v>
       </c>
-      <c r="D452" s="1"/>
+      <c r="D452" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
@@ -9418,7 +10328,9 @@
       <c r="C453" s="1">
         <v>-1.6150600000000001E-10</v>
       </c>
-      <c r="D453" s="1"/>
+      <c r="D453" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
@@ -9438,7 +10350,9 @@
       <c r="C454" s="1">
         <v>-1.68782E-10</v>
       </c>
-      <c r="D454" s="1"/>
+      <c r="D454" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
@@ -9458,7 +10372,9 @@
       <c r="C455" s="1">
         <v>-1.80606E-10</v>
       </c>
-      <c r="D455" s="1"/>
+      <c r="D455" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
@@ -9478,7 +10394,9 @@
       <c r="C456" s="1">
         <v>-1.8970100000000001E-10</v>
       </c>
-      <c r="D456" s="1"/>
+      <c r="D456" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
@@ -9498,7 +10416,9 @@
       <c r="C457" s="1">
         <v>-2.0334299999999999E-10</v>
       </c>
-      <c r="D457" s="1"/>
+      <c r="D457" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
@@ -9518,7 +10438,9 @@
       <c r="C458" s="1">
         <v>-2.1425699999999999E-10</v>
       </c>
-      <c r="D458" s="1"/>
+      <c r="D458" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
@@ -9538,7 +10460,9 @@
       <c r="C459" s="1">
         <v>-2.4017899999999998E-10</v>
       </c>
-      <c r="D459" s="1"/>
+      <c r="D459" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
@@ -9558,7 +10482,9 @@
       <c r="C460" s="1">
         <v>-2.40633E-10</v>
       </c>
-      <c r="D460" s="1"/>
+      <c r="D460" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
@@ -9578,7 +10504,9 @@
       <c r="C461" s="1">
         <v>-2.4881900000000002E-10</v>
       </c>
-      <c r="D461" s="1"/>
+      <c r="D461" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
@@ -9598,7 +10526,9 @@
       <c r="C462" s="1">
         <v>-2.6655400000000001E-10</v>
       </c>
-      <c r="D462" s="1"/>
+      <c r="D462" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
@@ -9618,7 +10548,9 @@
       <c r="C463" s="1">
         <v>-2.8019599999999999E-10</v>
       </c>
-      <c r="D463" s="1"/>
+      <c r="D463" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
@@ -9638,7 +10570,9 @@
       <c r="C464" s="1">
         <v>-2.9292899999999998E-10</v>
       </c>
-      <c r="D464" s="1"/>
+      <c r="D464" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
@@ -9658,7 +10592,9 @@
       <c r="C465" s="1">
         <v>-3.0520800000000001E-10</v>
       </c>
-      <c r="D465" s="1"/>
+      <c r="D465" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
@@ -9678,7 +10614,9 @@
       <c r="C466" s="1">
         <v>-3.1748600000000002E-10</v>
       </c>
-      <c r="D466" s="1"/>
+      <c r="D466" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
@@ -9698,7 +10636,9 @@
       <c r="C467" s="1">
         <v>-3.3021900000000002E-10</v>
       </c>
-      <c r="D467" s="1"/>
+      <c r="D467" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
@@ -9718,7 +10658,9 @@
       <c r="C468" s="1">
         <v>-3.4295200000000001E-10</v>
       </c>
-      <c r="D468" s="1"/>
+      <c r="D468" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
@@ -9738,7 +10680,9 @@
       <c r="C469" s="1">
         <v>-3.6023200000000002E-10</v>
       </c>
-      <c r="D469" s="1"/>
+      <c r="D469" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
@@ -9758,7 +10702,9 @@
       <c r="C470" s="1">
         <v>-3.7114600000000002E-10</v>
       </c>
-      <c r="D470" s="1"/>
+      <c r="D470" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
@@ -9778,7 +10724,9 @@
       <c r="C471" s="1">
         <v>-3.8615299999999998E-10</v>
       </c>
-      <c r="D471" s="1"/>
+      <c r="D471" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
@@ -9798,7 +10746,9 @@
       <c r="C472" s="1">
         <v>-4.0388800000000002E-10</v>
       </c>
-      <c r="D472" s="1"/>
+      <c r="D472" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
@@ -9818,7 +10768,9 @@
       <c r="C473" s="1">
         <v>-4.1662100000000001E-10</v>
       </c>
-      <c r="D473" s="1"/>
+      <c r="D473" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
@@ -9838,7 +10790,9 @@
       <c r="C474" s="1">
         <v>-4.2571600000000002E-10</v>
       </c>
-      <c r="D474" s="1"/>
+      <c r="D474" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
@@ -9858,7 +10812,9 @@
       <c r="C475" s="1">
         <v>-4.4436E-10</v>
       </c>
-      <c r="D475" s="1"/>
+      <c r="D475" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
@@ -9878,7 +10834,9 @@
       <c r="C476" s="1">
         <v>-4.5299999999999999E-10</v>
       </c>
-      <c r="D476" s="1"/>
+      <c r="D476" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
@@ -9898,7 +10856,9 @@
       <c r="C477" s="1">
         <v>-4.7755900000000005E-10</v>
       </c>
-      <c r="D477" s="1"/>
+      <c r="D477" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
@@ -9918,7 +10878,9 @@
       <c r="C478" s="1">
         <v>-4.7846799999999999E-10</v>
       </c>
-      <c r="D478" s="1"/>
+      <c r="D478" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
@@ -9938,7 +10900,9 @@
       <c r="C479" s="1">
         <v>-4.7937800000000004E-10</v>
       </c>
-      <c r="D479" s="1"/>
+      <c r="D479" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
@@ -9958,7 +10922,9 @@
       <c r="C480" s="1">
         <v>-4.9120100000000003E-10</v>
       </c>
-      <c r="D480" s="1"/>
+      <c r="D480" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
@@ -9978,7 +10944,9 @@
       <c r="C481" s="1">
         <v>-4.9847699999999999E-10</v>
       </c>
-      <c r="D481" s="1"/>
+      <c r="D481" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
@@ -9998,7 +10966,9 @@
       <c r="C482" s="1">
         <v>-4.9984100000000001E-10</v>
       </c>
-      <c r="D482" s="1"/>
+      <c r="D482" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
@@ -10018,7 +10988,9 @@
       <c r="C483" s="1">
         <v>-5.1666700000000001E-10</v>
       </c>
-      <c r="D483" s="1"/>
+      <c r="D483" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
@@ -10038,7 +11010,9 @@
       <c r="C484" s="1">
         <v>-5.1484800000000002E-10</v>
       </c>
-      <c r="D484" s="1"/>
+      <c r="D484" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
@@ -10058,7 +11032,9 @@
       <c r="C485" s="1">
         <v>-5.2712599999999998E-10</v>
       </c>
-      <c r="D485" s="1"/>
+      <c r="D485" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
@@ -10078,7 +11054,9 @@
       <c r="C486" s="1">
         <v>-5.2257899999999996E-10</v>
       </c>
-      <c r="D486" s="1"/>
+      <c r="D486" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
@@ -10098,7 +11076,9 @@
       <c r="C487" s="1">
         <v>-5.2621700000000005E-10</v>
       </c>
-      <c r="D487" s="1"/>
+      <c r="D487" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
@@ -10118,7 +11098,9 @@
       <c r="C488" s="1">
         <v>-5.2257899999999996E-10</v>
       </c>
-      <c r="D488" s="1"/>
+      <c r="D488" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
@@ -10138,7 +11120,9 @@
       <c r="C489" s="1">
         <v>-5.0984600000000002E-10</v>
       </c>
-      <c r="D489" s="1"/>
+      <c r="D489" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
@@ -10158,7 +11142,9 @@
       <c r="C490" s="1">
         <v>-5.2485200000000002E-10</v>
       </c>
-      <c r="D490" s="1"/>
+      <c r="D490" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
@@ -10178,7 +11164,9 @@
       <c r="C491" s="1">
         <v>-5.1393799999999997E-10</v>
       </c>
-      <c r="D491" s="1"/>
+      <c r="D491" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
@@ -10198,7 +11186,9 @@
       <c r="C492" s="1">
         <v>-5.1121000000000004E-10</v>
       </c>
-      <c r="D492" s="1"/>
+      <c r="D492" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
@@ -10218,7 +11208,9 @@
       <c r="C493" s="1">
         <v>-5.0256999999999995E-10</v>
       </c>
-      <c r="D493" s="1"/>
+      <c r="D493" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
@@ -10238,7 +11230,9 @@
       <c r="C494" s="1">
         <v>-4.9620300000000003E-10</v>
       </c>
-      <c r="D494" s="1"/>
+      <c r="D494" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
@@ -10258,7 +11252,9 @@
       <c r="C495" s="1">
         <v>-4.8256100000000005E-10</v>
       </c>
-      <c r="D495" s="1"/>
+      <c r="D495" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
@@ -10278,7 +11274,9 @@
       <c r="C496" s="1">
         <v>-4.7437500000000003E-10</v>
       </c>
-      <c r="D496" s="1"/>
+      <c r="D496" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
@@ -10298,7 +11296,9 @@
       <c r="C497" s="1">
         <v>-4.5436500000000001E-10</v>
       </c>
-      <c r="D497" s="1"/>
+      <c r="D497" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
@@ -10318,7 +11318,9 @@
       <c r="C498" s="1">
         <v>-4.3708399999999999E-10</v>
       </c>
-      <c r="D498" s="1"/>
+      <c r="D498" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
@@ -10338,7 +11340,9 @@
       <c r="C499" s="1">
         <v>-4.0115899999999998E-10</v>
       </c>
-      <c r="D499" s="1"/>
+      <c r="D499" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
@@ -10358,7 +11362,9 @@
       <c r="C500" s="1">
         <v>-3.9933999999999999E-10</v>
       </c>
-      <c r="D500" s="1"/>
+      <c r="D500" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
@@ -10378,7 +11384,9 @@
       <c r="C501" s="1">
         <v>-3.6114100000000001E-10</v>
       </c>
-      <c r="D501" s="1"/>
+      <c r="D501" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
@@ -10398,7 +11406,9 @@
       <c r="C502" s="1">
         <v>-3.3249200000000002E-10</v>
       </c>
-      <c r="D502" s="1"/>
+      <c r="D502" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
@@ -10418,7 +11428,9 @@
       <c r="C503" s="1">
         <v>-2.9656700000000002E-10</v>
       </c>
-      <c r="D503" s="1"/>
+      <c r="D503" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
@@ -10438,7 +11450,9 @@
       <c r="C504" s="1">
         <v>-2.6564500000000002E-10</v>
       </c>
-      <c r="D504" s="1"/>
+      <c r="D504" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
@@ -10458,7 +11472,9 @@
       <c r="C505" s="1">
         <v>-2.3244700000000001E-10</v>
       </c>
-      <c r="D505" s="1"/>
+      <c r="D505" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
@@ -10478,7 +11494,9 @@
       <c r="C506" s="1">
         <v>-1.9515800000000001E-10</v>
       </c>
-      <c r="D506" s="1"/>
+      <c r="D506" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
       <c r="G506" s="1"/>
@@ -10498,7 +11516,9 @@
       <c r="C507" s="1">
         <v>-1.3922399999999999E-10</v>
       </c>
-      <c r="D507" s="1"/>
+      <c r="D507" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
       <c r="G507" s="1"/>
@@ -10518,7 +11538,9 @@
       <c r="C508" s="1">
         <v>-9.8750499999999999E-11</v>
       </c>
-      <c r="D508" s="1"/>
+      <c r="D508" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
@@ -10538,7 +11560,9 @@
       <c r="C509" s="1">
         <v>-3.6449900000000001E-11</v>
       </c>
-      <c r="D509" s="1"/>
+      <c r="D509" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
@@ -10558,7 +11582,9 @@
       <c r="C510" s="1">
         <v>1.03894E-11</v>
       </c>
-      <c r="D510" s="1"/>
+      <c r="D510" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
       <c r="G510" s="1"/>
@@ -10578,7 +11604,9 @@
       <c r="C511" s="1">
         <v>7.5873400000000003E-11</v>
       </c>
-      <c r="D511" s="1"/>
+      <c r="D511" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
@@ -10598,7 +11626,9 @@
       <c r="C512" s="1">
         <v>1.4772399999999999E-10</v>
       </c>
-      <c r="D512" s="1"/>
+      <c r="D512" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
@@ -10618,7 +11648,9 @@
       <c r="C513" s="1">
         <v>1.99565E-10</v>
       </c>
-      <c r="D513" s="1"/>
+      <c r="D513" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1"/>
@@ -10638,7 +11670,9 @@
       <c r="C514" s="1">
         <v>2.7778200000000001E-10</v>
       </c>
-      <c r="D514" s="1"/>
+      <c r="D514" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
@@ -10658,7 +11692,9 @@
       <c r="C515" s="1">
         <v>3.4735800000000001E-10</v>
       </c>
-      <c r="D515" s="1"/>
+      <c r="D515" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
@@ -10678,7 +11714,9 @@
       <c r="C516" s="1">
         <v>4.3467000000000001E-10</v>
       </c>
-      <c r="D516" s="1"/>
+      <c r="D516" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
@@ -10698,7 +11736,9 @@
       <c r="C517" s="1">
         <v>5.10615E-10</v>
       </c>
-      <c r="D517" s="1"/>
+      <c r="D517" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
@@ -10718,7 +11758,9 @@
       <c r="C518" s="1">
         <v>6.1020399999999995E-10</v>
       </c>
-      <c r="D518" s="1"/>
+      <c r="D518" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
@@ -10738,7 +11780,9 @@
       <c r="C519" s="1">
         <v>7.2070799999999997E-10</v>
       </c>
-      <c r="D519" s="1"/>
+      <c r="D519" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
@@ -10758,7 +11802,9 @@
       <c r="C520" s="1">
         <v>8.1529500000000003E-10</v>
       </c>
-      <c r="D520" s="1"/>
+      <c r="D520" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
       <c r="G520" s="1"/>
@@ -10778,7 +11824,9 @@
       <c r="C521" s="1">
         <v>9.2579900000000004E-10</v>
       </c>
-      <c r="D521" s="1"/>
+      <c r="D521" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
       <c r="G521" s="1"/>
@@ -10798,7 +11846,9 @@
       <c r="C522" s="1">
         <v>1.0094799999999999E-9</v>
       </c>
-      <c r="D522" s="1"/>
+      <c r="D522" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
@@ -10818,7 +11868,9 @@
       <c r="C523" s="1">
         <v>1.1204399999999999E-9</v>
       </c>
-      <c r="D523" s="1"/>
+      <c r="D523" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1"/>
@@ -10838,7 +11890,9 @@
       <c r="C524" s="1">
         <v>1.2486800000000001E-9</v>
       </c>
-      <c r="D524" s="1"/>
+      <c r="D524" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
@@ -10858,7 +11912,9 @@
       <c r="C525" s="1">
         <v>1.3709999999999999E-9</v>
       </c>
-      <c r="D525" s="1"/>
+      <c r="D525" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
       <c r="G525" s="1"/>
@@ -10878,7 +11934,9 @@
       <c r="C526" s="1">
         <v>1.4724100000000001E-9</v>
       </c>
-      <c r="D526" s="1"/>
+      <c r="D526" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
       <c r="G526" s="1"/>
@@ -10898,7 +11956,9 @@
       <c r="C527" s="1">
         <v>1.6152E-9</v>
       </c>
-      <c r="D527" s="1"/>
+      <c r="D527" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
@@ -10918,7 +11978,9 @@
       <c r="C528" s="1">
         <v>1.7343499999999999E-9</v>
       </c>
-      <c r="D528" s="1"/>
+      <c r="D528" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
@@ -10938,7 +12000,9 @@
       <c r="C529" s="1">
         <v>1.8671399999999998E-9</v>
       </c>
-      <c r="D529" s="1"/>
+      <c r="D529" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
       <c r="G529" s="1"/>
@@ -10958,7 +12022,9 @@
       <c r="C530" s="1">
         <v>2.0040199999999999E-9</v>
       </c>
-      <c r="D530" s="1"/>
+      <c r="D530" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
       <c r="G530" s="1"/>
@@ -10978,7 +12044,9 @@
       <c r="C531" s="1">
         <v>2.1027000000000002E-9</v>
       </c>
-      <c r="D531" s="1"/>
+      <c r="D531" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
@@ -10998,7 +12066,9 @@
       <c r="C532" s="1">
         <v>2.2236600000000002E-9</v>
       </c>
-      <c r="D532" s="1"/>
+      <c r="D532" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
@@ -11018,7 +12088,9 @@
       <c r="C533" s="1">
         <v>2.34371E-9</v>
       </c>
-      <c r="D533" s="1"/>
+      <c r="D533" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
       <c r="G533" s="1"/>
@@ -11038,7 +12110,9 @@
       <c r="C534" s="1">
         <v>2.4614899999999999E-9</v>
       </c>
-      <c r="D534" s="1"/>
+      <c r="D534" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
       <c r="G534" s="1"/>
@@ -11058,7 +12132,9 @@
       <c r="C535" s="1">
         <v>2.5228900000000002E-9</v>
       </c>
-      <c r="D535" s="1"/>
+      <c r="D535" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
@@ -11078,7 +12154,9 @@
       <c r="C536" s="1">
         <v>2.6211099999999999E-9</v>
       </c>
-      <c r="D536" s="1"/>
+      <c r="D536" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
@@ -11098,7 +12176,9 @@
       <c r="C537" s="1">
         <v>2.70706E-9</v>
       </c>
-      <c r="D537" s="1"/>
+      <c r="D537" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
@@ -11118,7 +12198,9 @@
       <c r="C538" s="1">
         <v>2.7616300000000001E-9</v>
       </c>
-      <c r="D538" s="1"/>
+      <c r="D538" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
@@ -11138,7 +12220,9 @@
       <c r="C539" s="1">
         <v>2.8252899999999999E-9</v>
       </c>
-      <c r="D539" s="1"/>
+      <c r="D539" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
@@ -11158,7 +12242,9 @@
       <c r="C540" s="1">
         <v>2.8416599999999999E-9</v>
       </c>
-      <c r="D540" s="1"/>
+      <c r="D540" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
@@ -11178,7 +12264,9 @@
       <c r="C541" s="1">
         <v>2.8352999999999999E-9</v>
       </c>
-      <c r="D541" s="1"/>
+      <c r="D541" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
@@ -11198,7 +12286,9 @@
       <c r="C542" s="1">
         <v>2.8343900000000002E-9</v>
       </c>
-      <c r="D542" s="1"/>
+      <c r="D542" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
@@ -11218,7 +12308,9 @@
       <c r="C543" s="1">
         <v>2.80392E-9</v>
       </c>
-      <c r="D543" s="1"/>
+      <c r="D543" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
@@ -11238,7 +12330,9 @@
       <c r="C544" s="1">
         <v>2.7566299999999998E-9</v>
       </c>
-      <c r="D544" s="1"/>
+      <c r="D544" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
@@ -11258,7 +12352,9 @@
       <c r="C545" s="1">
         <v>2.66977E-9</v>
       </c>
-      <c r="D545" s="1"/>
+      <c r="D545" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
       <c r="G545" s="1"/>
@@ -11278,7 +12374,9 @@
       <c r="C546" s="1">
         <v>2.5688099999999999E-9</v>
       </c>
-      <c r="D546" s="1"/>
+      <c r="D546" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1"/>
@@ -11298,7 +12396,9 @@
       <c r="C547" s="1">
         <v>2.3996500000000001E-9</v>
       </c>
-      <c r="D547" s="1"/>
+      <c r="D547" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
@@ -11318,7 +12418,9 @@
       <c r="C548" s="1">
         <v>2.2650399999999999E-9</v>
       </c>
-      <c r="D548" s="1"/>
+      <c r="D548" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
@@ -11338,7 +12440,9 @@
       <c r="C549" s="1">
         <v>2.0726899999999998E-9</v>
       </c>
-      <c r="D549" s="1"/>
+      <c r="D549" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
@@ -11358,7 +12462,9 @@
       <c r="C550" s="1">
         <v>1.88442E-9</v>
       </c>
-      <c r="D550" s="1"/>
+      <c r="D550" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
       <c r="G550" s="1"/>
@@ -11378,7 +12484,9 @@
       <c r="C551" s="1">
         <v>1.6174800000000001E-9</v>
       </c>
-      <c r="D551" s="1"/>
+      <c r="D551" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
@@ -11398,7 +12506,9 @@
       <c r="C552" s="1">
         <v>1.38646E-9</v>
       </c>
-      <c r="D552" s="1"/>
+      <c r="D552" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1"/>
@@ -11418,7 +12528,9 @@
       <c r="C553" s="1">
         <v>1.0799600000000001E-9</v>
       </c>
-      <c r="D553" s="1"/>
+      <c r="D553" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
@@ -11438,7 +12550,9 @@
       <c r="C554" s="1">
         <v>8.0438099999999998E-10</v>
       </c>
-      <c r="D554" s="1"/>
+      <c r="D554" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
@@ -11458,7 +12572,9 @@
       <c r="C555" s="1">
         <v>4.2875800000000001E-10</v>
       </c>
-      <c r="D555" s="1"/>
+      <c r="D555" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
@@ -11478,7 +12594,9 @@
       <c r="C556" s="1">
         <v>1.7409899999999999E-10</v>
       </c>
-      <c r="D556" s="1"/>
+      <c r="D556" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
@@ -11498,7 +12616,9 @@
       <c r="C557" s="1">
         <v>-2.17895E-10</v>
       </c>
-      <c r="D557" s="1"/>
+      <c r="D557" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
@@ -11518,7 +12638,9 @@
       <c r="C558" s="1">
         <v>-5.5077299999999998E-10</v>
       </c>
-      <c r="D558" s="1"/>
+      <c r="D558" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
@@ -11538,7 +12660,9 @@
       <c r="C559" s="1">
         <v>-8.9183300000000004E-10</v>
       </c>
-      <c r="D559" s="1"/>
+      <c r="D559" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
       <c r="G559" s="1"/>
@@ -11558,7 +12682,9 @@
       <c r="C560" s="1">
         <v>-1.2287999999999999E-9</v>
       </c>
-      <c r="D560" s="1"/>
+      <c r="D560" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
       <c r="G560" s="1"/>
@@ -11578,7 +12704,9 @@
       <c r="C561" s="1">
         <v>-1.53621E-9</v>
       </c>
-      <c r="D561" s="1"/>
+      <c r="D561" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
@@ -11598,7 +12726,9 @@
       <c r="C562" s="1">
         <v>-1.87728E-9</v>
       </c>
-      <c r="D562" s="1"/>
+      <c r="D562" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="1"/>
@@ -11618,7 +12748,9 @@
       <c r="C563" s="1">
         <v>-2.2033300000000001E-9</v>
       </c>
-      <c r="D563" s="1"/>
+      <c r="D563" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
@@ -11638,7 +12770,9 @@
       <c r="C564" s="1">
         <v>-2.4516199999999999E-9</v>
       </c>
-      <c r="D564" s="1"/>
+      <c r="D564" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
       <c r="G564" s="1"/>
@@ -11658,7 +12792,9 @@
       <c r="C565" s="1">
         <v>-2.6862700000000001E-9</v>
       </c>
-      <c r="D565" s="1"/>
+      <c r="D565" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
       <c r="G565" s="1"/>
@@ -11678,7 +12814,9 @@
       <c r="C566" s="1">
         <v>-2.9081900000000001E-9</v>
       </c>
-      <c r="D566" s="1"/>
+      <c r="D566" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
@@ -11698,7 +12836,9 @@
       <c r="C567" s="1">
         <v>-3.1041899999999998E-9</v>
       </c>
-      <c r="D567" s="1"/>
+      <c r="D567" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
@@ -11718,7 +12858,9 @@
       <c r="C568" s="1">
         <v>-3.26744E-9</v>
       </c>
-      <c r="D568" s="1"/>
+      <c r="D568" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
       <c r="G568" s="1"/>
@@ -11738,7 +12880,9 @@
       <c r="C569" s="1">
         <v>-3.3579400000000001E-9</v>
       </c>
-      <c r="D569" s="1"/>
+      <c r="D569" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
       <c r="G569" s="1"/>
@@ -11758,7 +12902,9 @@
       <c r="C570" s="1">
         <v>-3.44025E-9</v>
       </c>
-      <c r="D570" s="1"/>
+      <c r="D570" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
@@ -11778,7 +12924,9 @@
       <c r="C571" s="1">
         <v>-3.4570699999999999E-9</v>
       </c>
-      <c r="D571" s="1"/>
+      <c r="D571" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1"/>
@@ -11798,7 +12946,9 @@
       <c r="C572" s="1">
         <v>-3.4861700000000002E-9</v>
       </c>
-      <c r="D572" s="1"/>
+      <c r="D572" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
@@ -11818,7 +12968,9 @@
       <c r="C573" s="1">
         <v>-3.4507000000000001E-9</v>
       </c>
-      <c r="D573" s="1"/>
+      <c r="D573" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
       <c r="G573" s="1"/>
@@ -11838,7 +12990,9 @@
       <c r="C574" s="1">
         <v>-3.3856799999999998E-9</v>
       </c>
-      <c r="D574" s="1"/>
+      <c r="D574" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
       <c r="G574" s="1"/>
@@ -11858,7 +13012,9 @@
       <c r="C575" s="1">
         <v>-3.2624400000000002E-9</v>
       </c>
-      <c r="D575" s="1"/>
+      <c r="D575" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
@@ -11878,7 +13034,9 @@
       <c r="C576" s="1">
         <v>-3.14693E-9</v>
       </c>
-      <c r="D576" s="1"/>
+      <c r="D576" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
@@ -11898,7 +13056,9 @@
       <c r="C577" s="1">
         <v>-2.9573000000000001E-9</v>
       </c>
-      <c r="D577" s="1"/>
+      <c r="D577" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
@@ -11918,7 +13078,9 @@
       <c r="C578" s="1">
         <v>-2.7867699999999999E-9</v>
       </c>
-      <c r="D578" s="1"/>
+      <c r="D578" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
       <c r="G578" s="1"/>
@@ -11938,7 +13100,9 @@
       <c r="C579" s="1">
         <v>-2.5680400000000002E-9</v>
       </c>
-      <c r="D579" s="1"/>
+      <c r="D579" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
       <c r="G579" s="1"/>
@@ -11958,7 +13122,9 @@
       <c r="C580" s="1">
         <v>-2.39296E-9</v>
       </c>
-      <c r="D580" s="1"/>
+      <c r="D580" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1"/>
@@ -11978,7 +13144,9 @@
       <c r="C581" s="1">
         <v>-2.12148E-9</v>
       </c>
-      <c r="D581" s="1"/>
+      <c r="D581" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1"/>
@@ -11998,7 +13166,9 @@
       <c r="C582" s="1">
         <v>-1.93958E-9</v>
       </c>
-      <c r="D582" s="1"/>
+      <c r="D582" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
@@ -12018,7 +13188,9 @@
       <c r="C583" s="1">
         <v>-1.6730900000000001E-9</v>
       </c>
-      <c r="D583" s="1"/>
+      <c r="D583" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
       <c r="G583" s="1"/>
@@ -12038,7 +13210,9 @@
       <c r="C584" s="1">
         <v>-1.4871E-9</v>
       </c>
-      <c r="D584" s="1"/>
+      <c r="D584" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
@@ -12058,7 +13232,9 @@
       <c r="C585" s="1">
         <v>-1.2638200000000001E-9</v>
       </c>
-      <c r="D585" s="1"/>
+      <c r="D585" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
       <c r="G585" s="1"/>
@@ -12078,7 +13254,9 @@
       <c r="C586" s="1">
         <v>-1.0750999999999999E-9</v>
       </c>
-      <c r="D586" s="1"/>
+      <c r="D586" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
       <c r="G586" s="1"/>
@@ -12098,7 +13276,9 @@
       <c r="C587" s="1">
         <v>-8.5090599999999998E-10</v>
       </c>
-      <c r="D587" s="1"/>
+      <c r="D587" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
       <c r="G587" s="1"/>
@@ -12118,7 +13298,9 @@
       <c r="C588" s="1">
         <v>-6.9265400000000002E-10</v>
       </c>
-      <c r="D588" s="1"/>
+      <c r="D588" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
       <c r="G588" s="1"/>
@@ -12138,7 +13320,9 @@
       <c r="C589" s="1">
         <v>-5.1302900000000003E-10</v>
       </c>
-      <c r="D589" s="1"/>
+      <c r="D589" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
       <c r="G589" s="1"/>
@@ -12158,7 +13342,9 @@
       <c r="C590" s="1">
         <v>-3.8115000000000002E-10</v>
       </c>
-      <c r="D590" s="1"/>
+      <c r="D590" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
       <c r="G590" s="1"/>
@@ -12178,7 +13364,9 @@
       <c r="C591" s="1">
         <v>-2.2699000000000001E-10</v>
       </c>
-      <c r="D591" s="1"/>
+      <c r="D591" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
       <c r="G591" s="1"/>
@@ -12198,7 +13386,9 @@
       <c r="C592" s="1">
         <v>-1.2739999999999999E-10</v>
       </c>
-      <c r="D592" s="1"/>
+      <c r="D592" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
       <c r="G592" s="1"/>
@@ -12218,7 +13408,9 @@
       <c r="C593" s="1">
         <v>-1.0074400000000001E-11</v>
       </c>
-      <c r="D593" s="1"/>
+      <c r="D593" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
       <c r="G593" s="1"/>
@@ -12238,7 +13430,9 @@
       <c r="C594" s="1">
         <v>6.35952E-11</v>
       </c>
-      <c r="D594" s="1"/>
+      <c r="D594" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
       <c r="G594" s="1"/>
@@ -12258,7 +13452,9 @@
       <c r="C595" s="1">
         <v>1.4545E-10</v>
       </c>
-      <c r="D595" s="1"/>
+      <c r="D595" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
       <c r="G595" s="1"/>
@@ -12278,7 +13474,9 @@
       <c r="C596" s="1">
         <v>1.93198E-10</v>
       </c>
-      <c r="D596" s="1"/>
+      <c r="D596" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
       <c r="G596" s="1"/>
@@ -12298,7 +13496,9 @@
       <c r="C597" s="1">
         <v>2.4913300000000002E-10</v>
       </c>
-      <c r="D597" s="1"/>
+      <c r="D597" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
@@ -12318,7 +13518,9 @@
       <c r="C598" s="1">
         <v>2.86422E-10</v>
       </c>
-      <c r="D598" s="1"/>
+      <c r="D598" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
       <c r="G598" s="1"/>
@@ -12338,7 +13540,9 @@
       <c r="C599" s="1">
         <v>3.2143800000000001E-10</v>
       </c>
-      <c r="D599" s="1"/>
+      <c r="D599" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
       <c r="G599" s="1"/>
@@ -12358,7 +13562,9 @@
       <c r="C600" s="1">
         <v>3.4963199999999998E-10</v>
       </c>
-      <c r="D600" s="1"/>
+      <c r="D600" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
       <c r="G600" s="1"/>
@@ -12378,7 +13584,9 @@
       <c r="C601" s="1">
         <v>3.6645799999999998E-10</v>
       </c>
-      <c r="D601" s="1"/>
+      <c r="D601" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
@@ -12398,7 +13606,9 @@
       <c r="C602" s="1">
         <v>3.8510300000000002E-10</v>
       </c>
-      <c r="D602" s="1"/>
+      <c r="D602" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
       <c r="G602" s="1"/>
@@ -12418,7 +13628,9 @@
       <c r="C603" s="1">
         <v>4.0738499999999998E-10</v>
       </c>
-      <c r="D603" s="1"/>
+      <c r="D603" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
       <c r="G603" s="1"/>
@@ -12438,7 +13650,9 @@
       <c r="C604" s="1">
         <v>4.1738999999999999E-10</v>
       </c>
-      <c r="D604" s="1"/>
+      <c r="D604" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
       <c r="G604" s="1"/>
@@ -12458,7 +13672,9 @@
       <c r="C605" s="1">
         <v>4.25575E-10</v>
       </c>
-      <c r="D605" s="1"/>
+      <c r="D605" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
       <c r="G605" s="1"/>
@@ -12478,7 +13694,9 @@
       <c r="C606" s="1">
         <v>4.3330599999999999E-10</v>
       </c>
-      <c r="D606" s="1"/>
+      <c r="D606" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
       <c r="G606" s="1"/>
@@ -12498,7 +13716,9 @@
       <c r="C607" s="1">
         <v>4.4376500000000002E-10</v>
       </c>
-      <c r="D607" s="1"/>
+      <c r="D607" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
       <c r="G607" s="1"/>
@@ -12518,7 +13738,9 @@
       <c r="C608" s="1">
         <v>4.4694799999999997E-10</v>
       </c>
-      <c r="D608" s="1"/>
+      <c r="D608" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
       <c r="G608" s="1"/>
@@ -12538,7 +13760,9 @@
       <c r="C609" s="1">
         <v>4.52405E-10</v>
       </c>
-      <c r="D609" s="1"/>
+      <c r="D609" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
       <c r="G609" s="1"/>
@@ -12558,7 +13782,9 @@
       <c r="C610" s="1">
         <v>4.5558800000000001E-10</v>
       </c>
-      <c r="D610" s="1"/>
+      <c r="D610" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
       <c r="G610" s="1"/>
@@ -12578,7 +13804,9 @@
       <c r="C611" s="1">
         <v>4.5604299999999998E-10</v>
       </c>
-      <c r="D611" s="1"/>
+      <c r="D611" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
       <c r="G611" s="1"/>
@@ -12598,7 +13826,9 @@
       <c r="C612" s="1">
         <v>4.5558800000000001E-10</v>
       </c>
-      <c r="D612" s="1"/>
+      <c r="D612" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
       <c r="G612" s="1"/>
@@ -12618,7 +13848,9 @@
       <c r="C613" s="1">
         <v>4.5013099999999998E-10</v>
       </c>
-      <c r="D613" s="1"/>
+      <c r="D613" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
       <c r="G613" s="1"/>
@@ -12638,7 +13870,9 @@
       <c r="C614" s="1">
         <v>4.5013099999999998E-10</v>
       </c>
-      <c r="D614" s="1"/>
+      <c r="D614" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
       <c r="G614" s="1"/>
@@ -12658,7 +13892,9 @@
       <c r="C615" s="1">
         <v>4.4194599999999997E-10</v>
       </c>
-      <c r="D615" s="1"/>
+      <c r="D615" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
@@ -12678,7 +13914,9 @@
       <c r="C616" s="1">
         <v>4.3739799999999999E-10</v>
       </c>
-      <c r="D616" s="1"/>
+      <c r="D616" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
@@ -12698,7 +13936,9 @@
       <c r="C617" s="1">
         <v>4.2330099999999998E-10</v>
       </c>
-      <c r="D617" s="1"/>
+      <c r="D617" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
       <c r="G617" s="1"/>
@@ -12718,7 +13958,9 @@
       <c r="C618" s="1">
         <v>4.1147799999999999E-10</v>
       </c>
-      <c r="D618" s="1"/>
+      <c r="D618" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
       <c r="G618" s="1"/>
@@ -12738,7 +13980,9 @@
       <c r="C619" s="1">
         <v>3.9510700000000002E-10</v>
       </c>
-      <c r="D619" s="1"/>
+      <c r="D619" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
       <c r="G619" s="1"/>
@@ -12758,7 +14002,9 @@
       <c r="C620" s="1">
         <v>3.8328399999999998E-10</v>
       </c>
-      <c r="D620" s="1"/>
+      <c r="D620" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
       <c r="G620" s="1"/>
@@ -12778,7 +14024,9 @@
       <c r="C621" s="1">
         <v>3.6281999999999999E-10</v>
       </c>
-      <c r="D621" s="1"/>
+      <c r="D621" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
       <c r="G621" s="1"/>
@@ -12798,7 +14046,9 @@
       <c r="C622" s="1">
         <v>3.4872299999999999E-10</v>
       </c>
-      <c r="D622" s="1"/>
+      <c r="D622" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
       <c r="G622" s="1"/>
@@ -12818,7 +14068,9 @@
       <c r="C623" s="1">
         <v>3.3007799999999999E-10</v>
       </c>
-      <c r="D623" s="1"/>
+      <c r="D623" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
       <c r="G623" s="1"/>
@@ -12838,7 +14090,9 @@
       <c r="C624" s="1">
         <v>3.1006899999999999E-10</v>
       </c>
-      <c r="D624" s="1"/>
+      <c r="D624" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
       <c r="G624" s="1"/>
@@ -12858,7 +14112,9 @@
       <c r="C625" s="1">
         <v>2.8915099999999999E-10</v>
       </c>
-      <c r="D625" s="1"/>
+      <c r="D625" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
       <c r="G625" s="1"/>
@@ -12878,7 +14134,9 @@
       <c r="C626" s="1">
         <v>2.74599E-10</v>
       </c>
-      <c r="D626" s="1"/>
+      <c r="D626" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
       <c r="G626" s="1"/>
@@ -12898,7 +14156,9 @@
       <c r="C627" s="1">
         <v>2.5504500000000002E-10</v>
       </c>
-      <c r="D627" s="1"/>
+      <c r="D627" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
       <c r="G627" s="1"/>
@@ -12918,7 +14178,9 @@
       <c r="C628" s="1">
         <v>2.3821900000000002E-10</v>
       </c>
-      <c r="D628" s="1"/>
+      <c r="D628" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E628" s="1"/>
       <c r="F628" s="1"/>
       <c r="G628" s="1"/>
@@ -12938,7 +14200,9 @@
       <c r="C629" s="1">
         <v>2.2412100000000001E-10</v>
       </c>
-      <c r="D629" s="1"/>
+      <c r="D629" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E629" s="1"/>
       <c r="F629" s="1"/>
       <c r="G629" s="1"/>
@@ -12958,7 +14222,9 @@
       <c r="C630" s="1">
         <v>2.0638599999999999E-10</v>
       </c>
-      <c r="D630" s="1"/>
+      <c r="D630" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E630" s="1"/>
       <c r="F630" s="1"/>
       <c r="G630" s="1"/>
@@ -12978,7 +14244,9 @@
       <c r="C631" s="1">
         <v>1.93653E-10</v>
       </c>
-      <c r="D631" s="1"/>
+      <c r="D631" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
       <c r="G631" s="1"/>
@@ -12998,7 +14266,9 @@
       <c r="C632" s="1">
         <v>1.7910099999999999E-10</v>
       </c>
-      <c r="D632" s="1"/>
+      <c r="D632" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
       <c r="G632" s="1"/>
@@ -13018,7 +14288,9 @@
       <c r="C633" s="1">
         <v>1.6773199999999999E-10</v>
       </c>
-      <c r="D633" s="1"/>
+      <c r="D633" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
@@ -13038,7 +14310,9 @@
       <c r="C634" s="1">
         <v>1.61821E-10</v>
       </c>
-      <c r="D634" s="1"/>
+      <c r="D634" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E634" s="1"/>
       <c r="F634" s="1"/>
       <c r="G634" s="1"/>
@@ -13058,7 +14332,9 @@
       <c r="C635" s="1">
         <v>1.4454E-10</v>
       </c>
-      <c r="D635" s="1"/>
+      <c r="D635" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E635" s="1"/>
       <c r="F635" s="1"/>
       <c r="G635" s="1"/>
@@ -13078,7 +14354,9 @@
       <c r="C636" s="1">
         <v>1.3680999999999999E-10</v>
       </c>
-      <c r="D636" s="1"/>
+      <c r="D636" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E636" s="1"/>
       <c r="F636" s="1"/>
       <c r="G636" s="1"/>
@@ -13098,7 +14376,9 @@
       <c r="C637" s="1">
         <v>1.2680500000000001E-10</v>
       </c>
-      <c r="D637" s="1"/>
+      <c r="D637" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
       <c r="G637" s="1"/>
@@ -13118,7 +14398,9 @@
       <c r="C638" s="1">
         <v>1.23167E-10</v>
       </c>
-      <c r="D638" s="1"/>
+      <c r="D638" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
       <c r="G638" s="1"/>
@@ -13138,7 +14420,9 @@
       <c r="C639" s="1">
         <v>1.12708E-10</v>
       </c>
-      <c r="D639" s="1"/>
+      <c r="D639" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
       <c r="G639" s="1"/>
@@ -13158,7 +14442,9 @@
       <c r="C640" s="1">
         <v>1.03158E-10</v>
       </c>
-      <c r="D640" s="1"/>
+      <c r="D640" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
       <c r="G640" s="1"/>
@@ -13178,7 +14464,9 @@
       <c r="C641" s="1">
         <v>9.7246400000000003E-11</v>
       </c>
-      <c r="D641" s="1"/>
+      <c r="D641" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
       <c r="G641" s="1"/>
@@ -13198,7 +14486,9 @@
       <c r="C642" s="1">
         <v>8.8151599999999994E-11</v>
       </c>
-      <c r="D642" s="1"/>
+      <c r="D642" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
       <c r="G642" s="1"/>
@@ -13218,7 +14508,9 @@
       <c r="C643" s="1">
         <v>8.0875600000000002E-11</v>
       </c>
-      <c r="D643" s="1"/>
+      <c r="D643" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
@@ -13238,7 +14530,9 @@
       <c r="C644" s="1">
         <v>7.4054399999999999E-11</v>
       </c>
-      <c r="D644" s="1"/>
+      <c r="D644" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
       <c r="G644" s="1"/>
@@ -13258,7 +14552,9 @@
       <c r="C645" s="1">
         <v>6.6778399999999995E-11</v>
       </c>
-      <c r="D645" s="1"/>
+      <c r="D645" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
       <c r="G645" s="1"/>
@@ -13278,7 +14574,9 @@
       <c r="C646" s="1">
         <v>6.2230999999999997E-11</v>
       </c>
-      <c r="D646" s="1"/>
+      <c r="D646" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
       <c r="G646" s="1"/>
@@ -13298,7 +14596,9 @@
       <c r="C647" s="1">
         <v>5.3135800000000002E-11</v>
       </c>
-      <c r="D647" s="1"/>
+      <c r="D647" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
       <c r="G647" s="1"/>
@@ -13318,7 +14618,9 @@
       <c r="C648" s="1">
         <v>4.5405099999999997E-11</v>
       </c>
-      <c r="D648" s="1"/>
+      <c r="D648" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
       <c r="G648" s="1"/>
@@ -13338,7 +14640,9 @@
       <c r="C649" s="1">
         <v>3.9493400000000002E-11</v>
       </c>
-      <c r="D649" s="1"/>
+      <c r="D649" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
       <c r="G649" s="1"/>
@@ -13358,7 +14662,9 @@
       <c r="C650" s="1">
         <v>3.4491099999999997E-11</v>
       </c>
-      <c r="D650" s="1"/>
+      <c r="D650" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
       <c r="G650" s="1"/>
@@ -13378,7 +14684,9 @@
       <c r="C651" s="1">
         <v>2.9488899999999998E-11</v>
       </c>
-      <c r="D651" s="1"/>
+      <c r="D651" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
       <c r="G651" s="1"/>
@@ -13398,7 +14706,9 @@
       <c r="C652" s="1">
         <v>2.1303400000000001E-11</v>
       </c>
-      <c r="D652" s="1"/>
+      <c r="D652" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
       <c r="G652" s="1"/>
@@ -13418,7 +14728,9 @@
       <c r="C653" s="1">
         <v>1.9939099999999999E-11</v>
       </c>
-      <c r="D653" s="1"/>
+      <c r="D653" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
       <c r="G653" s="1"/>
@@ -13438,7 +14750,9 @@
       <c r="C654" s="1">
         <v>1.22084E-11</v>
       </c>
-      <c r="D654" s="1"/>
+      <c r="D654" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
@@ -13458,7 +14772,9 @@
       <c r="C655" s="1">
         <v>1.22084E-11</v>
       </c>
-      <c r="D655" s="1"/>
+      <c r="D655" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
       <c r="G655" s="1"/>
@@ -13478,7 +14794,9 @@
       <c r="C656" s="1">
         <v>1.2943899999999999E-12</v>
       </c>
-      <c r="D656" s="1"/>
+      <c r="D656" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
@@ -13498,7 +14816,9 @@
       <c r="C657" s="1">
         <v>-1.8888600000000001E-12</v>
       </c>
-      <c r="D657" s="1"/>
+      <c r="D657" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
@@ -13518,7 +14838,9 @@
       <c r="C658" s="1">
         <v>-5.5268600000000001E-12</v>
       </c>
-      <c r="D658" s="1"/>
+      <c r="D658" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
@@ -13538,7 +14860,9 @@
       <c r="C659" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D659" s="1"/>
+      <c r="D659" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
       <c r="G659" s="1"/>
@@ -13558,7 +14882,9 @@
       <c r="C660" s="1">
         <v>-6.4363599999999998E-12</v>
       </c>
-      <c r="D660" s="1"/>
+      <c r="D660" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
       <c r="G660" s="1"/>
@@ -13578,7 +14904,9 @@
       <c r="C661" s="1">
         <v>-9.1648599999999998E-12</v>
       </c>
-      <c r="D661" s="1"/>
+      <c r="D661" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
       <c r="G661" s="1"/>
@@ -13598,7 +14926,9 @@
       <c r="C662" s="1">
         <v>-1.50766E-11</v>
       </c>
-      <c r="D662" s="1"/>
+      <c r="D662" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
       <c r="G662" s="1"/>
@@ -13618,7 +14948,9 @@
       <c r="C663" s="1">
         <v>-1.8259800000000001E-11</v>
       </c>
-      <c r="D663" s="1"/>
+      <c r="D663" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
       <c r="G663" s="1"/>
@@ -13638,7 +14970,9 @@
       <c r="C664" s="1">
         <v>-9.6196099999999992E-12</v>
       </c>
-      <c r="D664" s="1"/>
+      <c r="D664" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
       <c r="G664" s="1"/>
@@ -13658,7 +14992,9 @@
       <c r="C665" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D665" s="1"/>
+      <c r="D665" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
       <c r="G665" s="1"/>
@@ -13678,7 +15014,9 @@
       <c r="C666" s="1">
         <v>-2.0078900000000002E-11</v>
       </c>
-      <c r="D666" s="1"/>
+      <c r="D666" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
       <c r="G666" s="1"/>
@@ -13698,7 +15036,9 @@
       <c r="C667" s="1">
         <v>-1.8714599999999999E-11</v>
       </c>
-      <c r="D667" s="1"/>
+      <c r="D667" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
@@ -13718,7 +15058,9 @@
       <c r="C668" s="1">
         <v>-1.8714599999999999E-11</v>
       </c>
-      <c r="D668" s="1"/>
+      <c r="D668" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
       <c r="G668" s="1"/>
@@ -13738,7 +15080,9 @@
       <c r="C669" s="1">
         <v>-1.6895600000000001E-11</v>
       </c>
-      <c r="D669" s="1"/>
+      <c r="D669" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
       <c r="G669" s="1"/>
@@ -13758,7 +15102,9 @@
       <c r="C670" s="1">
         <v>-1.37124E-11</v>
       </c>
-      <c r="D670" s="1"/>
+      <c r="D670" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
@@ -13778,7 +15124,9 @@
       <c r="C671" s="1">
         <v>-1.18934E-11</v>
       </c>
-      <c r="D671" s="1"/>
+      <c r="D671" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
@@ -13798,7 +15146,9 @@
       <c r="C672" s="1">
         <v>-1.23481E-11</v>
       </c>
-      <c r="D672" s="1"/>
+      <c r="D672" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
@@ -13818,7 +15168,9 @@
       <c r="C673" s="1">
         <v>-4.1626100000000002E-12</v>
       </c>
-      <c r="D673" s="1"/>
+      <c r="D673" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
       <c r="G673" s="1"/>
@@ -13838,7 +15190,9 @@
       <c r="C674" s="1">
         <v>-1.43411E-12</v>
       </c>
-      <c r="D674" s="1"/>
+      <c r="D674" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
       <c r="G674" s="1"/>
@@ -13858,7 +15212,9 @@
       <c r="C675" s="1">
         <v>8.39638E-13</v>
       </c>
-      <c r="D675" s="1"/>
+      <c r="D675" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
@@ -13878,7 +15234,9 @@
       <c r="C676" s="1">
         <v>-5.2460200000000005E-13</v>
       </c>
-      <c r="D676" s="1"/>
+      <c r="D676" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
@@ -13898,7 +15256,9 @@
       <c r="C677" s="1">
         <v>8.1155900000000006E-12</v>
       </c>
-      <c r="D677" s="1"/>
+      <c r="D677" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
       <c r="G677" s="1"/>
@@ -13918,7 +15278,9 @@
       <c r="C678" s="1">
         <v>1.31179E-11</v>
       </c>
-      <c r="D678" s="1"/>
+      <c r="D678" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
       <c r="G678" s="1"/>
@@ -13938,7 +15300,9 @@
       <c r="C679" s="1">
         <v>1.63011E-11</v>
       </c>
-      <c r="D679" s="1"/>
+      <c r="D679" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
@@ -13958,7 +15322,9 @@
       <c r="C680" s="1">
         <v>2.4031799999999999E-11</v>
       </c>
-      <c r="D680" s="1"/>
+      <c r="D680" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
@@ -13978,7 +15344,9 @@
       <c r="C681" s="1">
         <v>2.5396200000000001E-11</v>
       </c>
-      <c r="D681" s="1"/>
+      <c r="D681" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
       <c r="G681" s="1"/>
@@ -13998,7 +15366,9 @@
       <c r="C682" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D682" s="1"/>
+      <c r="D682" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
       <c r="G682" s="1"/>
@@ -14018,7 +15388,9 @@
       <c r="C683" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D683" s="1"/>
+      <c r="D683" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
       <c r="G683" s="1"/>
@@ -14038,7 +15410,9 @@
       <c r="C684" s="1">
         <v>3.4036400000000002E-11</v>
       </c>
-      <c r="D684" s="1"/>
+      <c r="D684" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
@@ -14058,7 +15432,9 @@
       <c r="C685" s="1">
         <v>3.8129099999999999E-11</v>
       </c>
-      <c r="D685" s="1"/>
+      <c r="D685" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
       <c r="G685" s="1"/>
@@ -14078,7 +15454,9 @@
       <c r="C686" s="1">
         <v>4.0857599999999999E-11</v>
       </c>
-      <c r="D686" s="1"/>
+      <c r="D686" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
       <c r="G686" s="1"/>
@@ -14098,7 +15476,9 @@
       <c r="C687" s="1">
         <v>4.3131299999999998E-11</v>
       </c>
-      <c r="D687" s="1"/>
+      <c r="D687" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
       <c r="G687" s="1"/>
@@ -14118,7 +15498,9 @@
       <c r="C688" s="1">
         <v>4.40408E-11</v>
       </c>
-      <c r="D688" s="1"/>
+      <c r="D688" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
       <c r="G688" s="1"/>
@@ -14138,7 +15520,9 @@
       <c r="C689" s="1">
         <v>4.5405099999999997E-11</v>
       </c>
-      <c r="D689" s="1"/>
+      <c r="D689" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
       <c r="G689" s="1"/>
@@ -14158,7 +15542,9 @@
       <c r="C690" s="1">
         <v>4.2676599999999997E-11</v>
       </c>
-      <c r="D690" s="1"/>
+      <c r="D690" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
       <c r="G690" s="1"/>
@@ -14178,7 +15564,9 @@
       <c r="C691" s="1">
         <v>4.3586099999999999E-11</v>
       </c>
-      <c r="D691" s="1"/>
+      <c r="D691" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
       <c r="G691" s="1"/>
@@ -14198,7 +15586,9 @@
       <c r="C692" s="1">
         <v>4.67693E-11</v>
       </c>
-      <c r="D692" s="1"/>
+      <c r="D692" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
       <c r="G692" s="1"/>
@@ -14218,7 +15608,9 @@
       <c r="C693" s="1">
         <v>4.5405099999999997E-11</v>
       </c>
-      <c r="D693" s="1"/>
+      <c r="D693" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
       <c r="G693" s="1"/>
@@ -14238,7 +15630,9 @@
       <c r="C694" s="1">
         <v>4.94978E-11</v>
       </c>
-      <c r="D694" s="1"/>
+      <c r="D694" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
       <c r="G694" s="1"/>
@@ -14258,7 +15652,9 @@
       <c r="C695" s="1">
         <v>4.7224100000000001E-11</v>
       </c>
-      <c r="D695" s="1"/>
+      <c r="D695" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
       <c r="G695" s="1"/>
@@ -14278,7 +15674,9 @@
       <c r="C696" s="1">
         <v>4.4495600000000001E-11</v>
       </c>
-      <c r="D696" s="1"/>
+      <c r="D696" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
       <c r="G696" s="1"/>
@@ -14298,7 +15696,9 @@
       <c r="C697" s="1">
         <v>4.3131299999999998E-11</v>
       </c>
-      <c r="D697" s="1"/>
+      <c r="D697" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
@@ -14318,7 +15718,9 @@
       <c r="C698" s="1">
         <v>4.13124E-11</v>
       </c>
-      <c r="D698" s="1"/>
+      <c r="D698" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
       <c r="G698" s="1"/>
@@ -14338,7 +15740,9 @@
       <c r="C699" s="1">
         <v>3.9038600000000001E-11</v>
       </c>
-      <c r="D699" s="1"/>
+      <c r="D699" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
       <c r="G699" s="1"/>
@@ -14358,7 +15762,9 @@
       <c r="C700" s="1">
         <v>3.5400599999999999E-11</v>
       </c>
-      <c r="D700" s="1"/>
+      <c r="D700" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
       <c r="G700" s="1"/>
@@ -14378,7 +15784,9 @@
       <c r="C701" s="1">
         <v>2.76699E-11</v>
       </c>
-      <c r="D701" s="1"/>
+      <c r="D701" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
       <c r="G701" s="1"/>
@@ -14398,7 +15806,9 @@
       <c r="C702" s="1">
         <v>3.9038600000000001E-11</v>
       </c>
-      <c r="D702" s="1"/>
+      <c r="D702" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
       <c r="G702" s="1"/>
@@ -14418,7 +15828,9 @@
       <c r="C703" s="1">
         <v>3.0853200000000001E-11</v>
       </c>
-      <c r="D703" s="1"/>
+      <c r="D703" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
       <c r="G703" s="1"/>
@@ -14438,7 +15850,9 @@
       <c r="C704" s="1">
         <v>2.8579399999999999E-11</v>
       </c>
-      <c r="D704" s="1"/>
+      <c r="D704" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
       <c r="G704" s="1"/>
@@ -14458,7 +15872,9 @@
       <c r="C705" s="1">
         <v>3.03984E-11</v>
       </c>
-      <c r="D705" s="1"/>
+      <c r="D705" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
       <c r="G705" s="1"/>
@@ -14478,7 +15894,9 @@
       <c r="C706" s="1">
         <v>1.26632E-11</v>
       </c>
-      <c r="D706" s="1"/>
+      <c r="D706" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
       <c r="G706" s="1"/>
@@ -14498,7 +15916,9 @@
       <c r="C707" s="1">
         <v>3.9493400000000002E-11</v>
       </c>
-      <c r="D707" s="1"/>
+      <c r="D707" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
       <c r="G707" s="1"/>
@@ -14518,7 +15938,9 @@
       <c r="C708" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D708" s="1"/>
+      <c r="D708" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
@@ -14538,7 +15960,9 @@
       <c r="C709" s="1">
         <v>2.3577100000000001E-11</v>
       </c>
-      <c r="D709" s="1"/>
+      <c r="D709" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
       <c r="G709" s="1"/>
@@ -14558,7 +15982,9 @@
       <c r="C710" s="1">
         <v>2.3122399999999999E-11</v>
       </c>
-      <c r="D710" s="1"/>
+      <c r="D710" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
       <c r="G710" s="1"/>
@@ -14578,7 +16004,9 @@
       <c r="C711" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D711" s="1"/>
+      <c r="D711" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
       <c r="G711" s="1"/>
@@ -14598,7 +16026,9 @@
       <c r="C712" s="1">
         <v>2.9488899999999998E-11</v>
       </c>
-      <c r="D712" s="1"/>
+      <c r="D712" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
       <c r="G712" s="1"/>
@@ -14618,7 +16048,9 @@
       <c r="C713" s="1">
         <v>2.63057E-11</v>
       </c>
-      <c r="D713" s="1"/>
+      <c r="D713" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
       <c r="G713" s="1"/>
@@ -14638,7 +16070,9 @@
       <c r="C714" s="1">
         <v>2.4486599999999999E-11</v>
       </c>
-      <c r="D714" s="1"/>
+      <c r="D714" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
       <c r="G714" s="1"/>
@@ -14658,7 +16092,9 @@
       <c r="C715" s="1">
         <v>2.9488899999999998E-11</v>
       </c>
-      <c r="D715" s="1"/>
+      <c r="D715" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
@@ -14678,7 +16114,9 @@
       <c r="C716" s="1">
         <v>4.94978E-11</v>
       </c>
-      <c r="D716" s="1"/>
+      <c r="D716" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
       <c r="G716" s="1"/>
@@ -14698,7 +16136,9 @@
       <c r="C717" s="1">
         <v>2.63057E-11</v>
       </c>
-      <c r="D717" s="1"/>
+      <c r="D717" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
       <c r="G717" s="1"/>
@@ -14718,7 +16158,9 @@
       <c r="C718" s="1">
         <v>3.31269E-11</v>
       </c>
-      <c r="D718" s="1"/>
+      <c r="D718" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
       <c r="G718" s="1"/>
@@ -14738,7 +16180,9 @@
       <c r="C719" s="1">
         <v>3.4945899999999998E-11</v>
       </c>
-      <c r="D719" s="1"/>
+      <c r="D719" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
       <c r="G719" s="1"/>
@@ -14758,7 +16202,9 @@
       <c r="C720" s="1">
         <v>3.58554E-11</v>
       </c>
-      <c r="D720" s="1"/>
+      <c r="D720" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
       <c r="G720" s="1"/>
@@ -14778,7 +16224,9 @@
       <c r="C721" s="1">
         <v>6.5414200000000005E-11</v>
       </c>
-      <c r="D721" s="1"/>
+      <c r="D721" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
       <c r="G721" s="1"/>
@@ -14798,7 +16246,9 @@
       <c r="C722" s="1">
         <v>4.40408E-11</v>
       </c>
-      <c r="D722" s="1"/>
+      <c r="D722" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
       <c r="G722" s="1"/>
@@ -14818,7 +16268,9 @@
       <c r="C723" s="1">
         <v>5.0407300000000002E-11</v>
       </c>
-      <c r="D723" s="1"/>
+      <c r="D723" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
       <c r="G723" s="1"/>
@@ -14838,7 +16290,9 @@
       <c r="C724" s="1">
         <v>4.4950300000000002E-11</v>
       </c>
-      <c r="D724" s="1"/>
+      <c r="D724" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
       <c r="G724" s="1"/>
@@ -14858,7 +16312,9 @@
       <c r="C725" s="1">
         <v>4.67693E-11</v>
       </c>
-      <c r="D725" s="1"/>
+      <c r="D725" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
       <c r="G725" s="1"/>
@@ -14878,7 +16334,9 @@
       <c r="C726" s="1">
         <v>5.6773999999999997E-11</v>
       </c>
-      <c r="D726" s="1"/>
+      <c r="D726" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
       <c r="G726" s="1"/>
@@ -14898,7 +16356,9 @@
       <c r="C727" s="1">
         <v>3.1762700000000003E-11</v>
       </c>
-      <c r="D727" s="1"/>
+      <c r="D727" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
       <c r="G727" s="1"/>
@@ -14918,7 +16378,9 @@
       <c r="C728" s="1">
         <v>6.8142700000000004E-11</v>
       </c>
-      <c r="D728" s="1"/>
+      <c r="D728" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
       <c r="G728" s="1"/>
@@ -14938,7 +16400,9 @@
       <c r="C729" s="1">
         <v>5.1316799999999998E-11</v>
       </c>
-      <c r="D729" s="1"/>
+      <c r="D729" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
       <c r="G729" s="1"/>
@@ -14958,7 +16422,9 @@
       <c r="C730" s="1">
         <v>5.1771499999999999E-11</v>
       </c>
-      <c r="D730" s="1"/>
+      <c r="D730" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
       <c r="G730" s="1"/>
@@ -14978,7 +16444,9 @@
       <c r="C731" s="1">
         <v>5.4954999999999999E-11</v>
       </c>
-      <c r="D731" s="1"/>
+      <c r="D731" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
       <c r="G731" s="1"/>
@@ -14998,7 +16466,9 @@
       <c r="C732" s="1">
         <v>6.4959400000000004E-11</v>
       </c>
-      <c r="D732" s="1"/>
+      <c r="D732" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
       <c r="G732" s="1"/>
@@ -15018,7 +16488,9 @@
       <c r="C733" s="1">
         <v>4.3586099999999999E-11</v>
       </c>
-      <c r="D733" s="1"/>
+      <c r="D733" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
       <c r="G733" s="1"/>
@@ -15038,7 +16510,9 @@
       <c r="C734" s="1">
         <v>5.3135800000000002E-11</v>
       </c>
-      <c r="D734" s="1"/>
+      <c r="D734" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
       <c r="G734" s="1"/>
@@ -15058,7 +16532,9 @@
       <c r="C735" s="1">
         <v>4.94978E-11</v>
       </c>
-      <c r="D735" s="1"/>
+      <c r="D735" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
       <c r="G735" s="1"/>
@@ -15078,7 +16554,9 @@
       <c r="C736" s="1">
         <v>4.1767100000000001E-11</v>
       </c>
-      <c r="D736" s="1"/>
+      <c r="D736" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
@@ -15098,7 +16576,9 @@
       <c r="C737" s="1">
         <v>4.9043099999999999E-11</v>
       </c>
-      <c r="D737" s="1"/>
+      <c r="D737" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
       <c r="G737" s="1"/>
@@ -15118,7 +16598,9 @@
       <c r="C738" s="1">
         <v>4.8133600000000003E-11</v>
       </c>
-      <c r="D738" s="1"/>
+      <c r="D738" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
       <c r="G738" s="1"/>
@@ -15138,7 +16620,9 @@
       <c r="C739" s="1">
         <v>5.3135800000000002E-11</v>
       </c>
-      <c r="D739" s="1"/>
+      <c r="D739" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
       <c r="G739" s="1"/>
@@ -15158,7 +16642,9 @@
       <c r="C740" s="1">
         <v>5.1771499999999999E-11</v>
       </c>
-      <c r="D740" s="1"/>
+      <c r="D740" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
       <c r="G740" s="1"/>
@@ -15178,7 +16664,9 @@
       <c r="C741" s="1">
         <v>6.6778399999999995E-11</v>
       </c>
-      <c r="D741" s="1"/>
+      <c r="D741" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
       <c r="G741" s="1"/>
@@ -15198,7 +16686,9 @@
       <c r="C742" s="1">
         <v>4.40408E-11</v>
       </c>
-      <c r="D742" s="1"/>
+      <c r="D742" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
       <c r="G742" s="1"/>
@@ -15218,7 +16708,9 @@
       <c r="C743" s="1">
         <v>4.40408E-11</v>
       </c>
-      <c r="D743" s="1"/>
+      <c r="D743" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
       <c r="G743" s="1"/>
@@ -15238,7 +16730,9 @@
       <c r="C744" s="1">
         <v>5.1771499999999999E-11</v>
       </c>
-      <c r="D744" s="1"/>
+      <c r="D744" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
       <c r="G744" s="1"/>
@@ -15258,7 +16752,9 @@
       <c r="C745" s="1">
         <v>5.0407300000000002E-11</v>
       </c>
-      <c r="D745" s="1"/>
+      <c r="D745" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
       <c r="G745" s="1"/>
@@ -15278,7 +16774,9 @@
       <c r="C746" s="1">
         <v>5.0407300000000002E-11</v>
       </c>
-      <c r="D746" s="1"/>
+      <c r="D746" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
       <c r="G746" s="1"/>
@@ -15298,7 +16796,9 @@
       <c r="C747" s="1">
         <v>4.1767100000000001E-11</v>
       </c>
-      <c r="D747" s="1"/>
+      <c r="D747" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
       <c r="G747" s="1"/>
@@ -15318,7 +16818,9 @@
       <c r="C748" s="1">
         <v>6.0412000000000006E-11</v>
       </c>
-      <c r="D748" s="1"/>
+      <c r="D748" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
       <c r="G748" s="1"/>
@@ -15338,7 +16840,9 @@
       <c r="C749" s="1">
         <v>5.54097E-11</v>
       </c>
-      <c r="D749" s="1"/>
+      <c r="D749" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
       <c r="G749" s="1"/>
@@ -15358,7 +16862,9 @@
       <c r="C750" s="1">
         <v>5.0407300000000002E-11</v>
       </c>
-      <c r="D750" s="1"/>
+      <c r="D750" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
       <c r="G750" s="1"/>
@@ -15378,7 +16884,9 @@
       <c r="C751" s="1">
         <v>5.54097E-11</v>
       </c>
-      <c r="D751" s="1"/>
+      <c r="D751" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
       <c r="G751" s="1"/>
@@ -15398,8 +16906,11 @@
       <c r="C752">
         <v>0</v>
       </c>
-    </row>
-    <row r="753" spans="1:3">
+      <c r="D752" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
       <c r="A753">
         <v>25.033329999999999</v>
       </c>
@@ -15409,8 +16920,11 @@
       <c r="C753">
         <v>0</v>
       </c>
-    </row>
-    <row r="754" spans="1:3">
+      <c r="D753" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
       <c r="A754">
         <v>25.066669999999998</v>
       </c>
@@ -15420,8 +16934,11 @@
       <c r="C754">
         <v>0</v>
       </c>
-    </row>
-    <row r="755" spans="1:3">
+      <c r="D754" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
       <c r="A755">
         <v>25.1</v>
       </c>
@@ -15431,8 +16948,11 @@
       <c r="C755">
         <v>0</v>
       </c>
-    </row>
-    <row r="756" spans="1:3">
+      <c r="D755" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
       <c r="A756">
         <v>25.133330000000001</v>
       </c>
@@ -15442,8 +16962,11 @@
       <c r="C756">
         <v>0</v>
       </c>
-    </row>
-    <row r="757" spans="1:3">
+      <c r="D756" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
       <c r="A757">
         <v>25.16667</v>
       </c>
@@ -15453,8 +16976,11 @@
       <c r="C757">
         <v>0</v>
       </c>
-    </row>
-    <row r="758" spans="1:3">
+      <c r="D757" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4">
       <c r="A758">
         <v>25.2</v>
       </c>
@@ -15464,8 +16990,11 @@
       <c r="C758">
         <v>0</v>
       </c>
-    </row>
-    <row r="759" spans="1:3">
+      <c r="D758" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
       <c r="A759">
         <v>25.233329999999999</v>
       </c>
@@ -15475,8 +17004,11 @@
       <c r="C759">
         <v>0</v>
       </c>
-    </row>
-    <row r="760" spans="1:3">
+      <c r="D759" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
       <c r="A760">
         <v>25.266670000000001</v>
       </c>
@@ -15486,8 +17018,11 @@
       <c r="C760">
         <v>0</v>
       </c>
-    </row>
-    <row r="761" spans="1:3">
+      <c r="D760" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4">
       <c r="A761">
         <v>25.3</v>
       </c>
@@ -15497,8 +17032,11 @@
       <c r="C761">
         <v>0</v>
       </c>
-    </row>
-    <row r="762" spans="1:3">
+      <c r="D761" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
       <c r="A762">
         <v>25.33333</v>
       </c>
@@ -15508,8 +17046,11 @@
       <c r="C762">
         <v>0</v>
       </c>
-    </row>
-    <row r="763" spans="1:3">
+      <c r="D762" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
       <c r="A763">
         <v>25.366669999999999</v>
       </c>
@@ -15519,8 +17060,11 @@
       <c r="C763">
         <v>0</v>
       </c>
-    </row>
-    <row r="764" spans="1:3">
+      <c r="D763" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
       <c r="A764">
         <v>25.4</v>
       </c>
@@ -15530,8 +17074,11 @@
       <c r="C764">
         <v>0</v>
       </c>
-    </row>
-    <row r="765" spans="1:3">
+      <c r="D764" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
       <c r="A765">
         <v>25.433330000000002</v>
       </c>
@@ -15541,8 +17088,11 @@
       <c r="C765">
         <v>0</v>
       </c>
-    </row>
-    <row r="766" spans="1:3">
+      <c r="D765" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
       <c r="A766">
         <v>25.466670000000001</v>
       </c>
@@ -15552,8 +17102,11 @@
       <c r="C766">
         <v>0</v>
       </c>
-    </row>
-    <row r="767" spans="1:3">
+      <c r="D766" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
       <c r="A767">
         <v>25.5</v>
       </c>
@@ -15563,8 +17116,11 @@
       <c r="C767">
         <v>0</v>
       </c>
-    </row>
-    <row r="768" spans="1:3">
+      <c r="D767" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
       <c r="A768">
         <v>25.533329999999999</v>
       </c>
@@ -15574,8 +17130,11 @@
       <c r="C768">
         <v>0</v>
       </c>
-    </row>
-    <row r="769" spans="1:3">
+      <c r="D768" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4">
       <c r="A769">
         <v>25.566669999999998</v>
       </c>
@@ -15585,8 +17144,11 @@
       <c r="C769">
         <v>0</v>
       </c>
-    </row>
-    <row r="770" spans="1:3">
+      <c r="D769" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4">
       <c r="A770">
         <v>25.6</v>
       </c>
@@ -15596,8 +17158,11 @@
       <c r="C770">
         <v>0</v>
       </c>
-    </row>
-    <row r="771" spans="1:3">
+      <c r="D770" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4">
       <c r="A771">
         <v>25.633330000000001</v>
       </c>
@@ -15607,8 +17172,11 @@
       <c r="C771">
         <v>0</v>
       </c>
-    </row>
-    <row r="772" spans="1:3">
+      <c r="D771" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4">
       <c r="A772">
         <v>25.66667</v>
       </c>
@@ -15618,8 +17186,11 @@
       <c r="C772">
         <v>0</v>
       </c>
-    </row>
-    <row r="773" spans="1:3">
+      <c r="D772" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4">
       <c r="A773">
         <v>25.7</v>
       </c>
@@ -15629,8 +17200,11 @@
       <c r="C773">
         <v>0</v>
       </c>
-    </row>
-    <row r="774" spans="1:3">
+      <c r="D773" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4">
       <c r="A774">
         <v>25.733329999999999</v>
       </c>
@@ -15640,8 +17214,11 @@
       <c r="C774">
         <v>0</v>
       </c>
-    </row>
-    <row r="775" spans="1:3">
+      <c r="D774" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4">
       <c r="A775">
         <v>25.766670000000001</v>
       </c>
@@ -15651,8 +17228,11 @@
       <c r="C775">
         <v>0</v>
       </c>
-    </row>
-    <row r="776" spans="1:3">
+      <c r="D775" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
       <c r="A776">
         <v>25.8</v>
       </c>
@@ -15662,8 +17242,11 @@
       <c r="C776">
         <v>0</v>
       </c>
-    </row>
-    <row r="777" spans="1:3">
+      <c r="D776" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4">
       <c r="A777">
         <v>25.83333</v>
       </c>
@@ -15673,8 +17256,11 @@
       <c r="C777">
         <v>0</v>
       </c>
-    </row>
-    <row r="778" spans="1:3">
+      <c r="D777" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4">
       <c r="A778">
         <v>25.866669999999999</v>
       </c>
@@ -15684,8 +17270,11 @@
       <c r="C778">
         <v>0</v>
       </c>
-    </row>
-    <row r="779" spans="1:3">
+      <c r="D778" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4">
       <c r="A779">
         <v>25.9</v>
       </c>
@@ -15695,8 +17284,11 @@
       <c r="C779">
         <v>0</v>
       </c>
-    </row>
-    <row r="780" spans="1:3">
+      <c r="D779" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4">
       <c r="A780">
         <v>25.933330000000002</v>
       </c>
@@ -15706,8 +17298,11 @@
       <c r="C780">
         <v>0</v>
       </c>
-    </row>
-    <row r="781" spans="1:3">
+      <c r="D780" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4">
       <c r="A781">
         <v>25.966670000000001</v>
       </c>
@@ -15717,8 +17312,11 @@
       <c r="C781">
         <v>0</v>
       </c>
-    </row>
-    <row r="782" spans="1:3">
+      <c r="D781" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
       <c r="A782">
         <v>26</v>
       </c>
@@ -15728,8 +17326,11 @@
       <c r="C782">
         <v>0</v>
       </c>
-    </row>
-    <row r="783" spans="1:3">
+      <c r="D782" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4">
       <c r="A783">
         <v>26.033329999999999</v>
       </c>
@@ -15739,8 +17340,11 @@
       <c r="C783">
         <v>0</v>
       </c>
-    </row>
-    <row r="784" spans="1:3">
+      <c r="D783" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4">
       <c r="A784">
         <v>26.066669999999998</v>
       </c>
@@ -15750,8 +17354,11 @@
       <c r="C784">
         <v>0</v>
       </c>
-    </row>
-    <row r="785" spans="1:3">
+      <c r="D784" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
       <c r="A785">
         <v>26.1</v>
       </c>
@@ -15761,8 +17368,11 @@
       <c r="C785">
         <v>0</v>
       </c>
-    </row>
-    <row r="786" spans="1:3">
+      <c r="D785" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
       <c r="A786">
         <v>26.133330000000001</v>
       </c>
@@ -15772,8 +17382,11 @@
       <c r="C786">
         <v>0</v>
       </c>
-    </row>
-    <row r="787" spans="1:3">
+      <c r="D786" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
       <c r="A787">
         <v>26.16667</v>
       </c>
@@ -15783,8 +17396,11 @@
       <c r="C787">
         <v>0</v>
       </c>
-    </row>
-    <row r="788" spans="1:3">
+      <c r="D787" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
       <c r="A788">
         <v>26.2</v>
       </c>
@@ -15794,8 +17410,11 @@
       <c r="C788">
         <v>0</v>
       </c>
-    </row>
-    <row r="789" spans="1:3">
+      <c r="D788" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
       <c r="A789">
         <v>26.233329999999999</v>
       </c>
@@ -15805,8 +17424,11 @@
       <c r="C789">
         <v>0</v>
       </c>
-    </row>
-    <row r="790" spans="1:3">
+      <c r="D789" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
       <c r="A790">
         <v>26.266670000000001</v>
       </c>
@@ -15816,8 +17438,11 @@
       <c r="C790">
         <v>0</v>
       </c>
-    </row>
-    <row r="791" spans="1:3">
+      <c r="D790" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
       <c r="A791">
         <v>26.3</v>
       </c>
@@ -15827,8 +17452,11 @@
       <c r="C791">
         <v>0</v>
       </c>
-    </row>
-    <row r="792" spans="1:3">
+      <c r="D791" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
       <c r="A792">
         <v>26.33333</v>
       </c>
@@ -15838,8 +17466,11 @@
       <c r="C792">
         <v>0</v>
       </c>
-    </row>
-    <row r="793" spans="1:3">
+      <c r="D792" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
       <c r="A793">
         <v>26.366669999999999</v>
       </c>
@@ -15849,8 +17480,11 @@
       <c r="C793">
         <v>0</v>
       </c>
-    </row>
-    <row r="794" spans="1:3">
+      <c r="D793" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
       <c r="A794">
         <v>26.4</v>
       </c>
@@ -15860,8 +17494,11 @@
       <c r="C794">
         <v>0</v>
       </c>
-    </row>
-    <row r="795" spans="1:3">
+      <c r="D794" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
       <c r="A795">
         <v>26.433330000000002</v>
       </c>
@@ -15871,8 +17508,11 @@
       <c r="C795">
         <v>0</v>
       </c>
-    </row>
-    <row r="796" spans="1:3">
+      <c r="D795" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
       <c r="A796">
         <v>26.466670000000001</v>
       </c>
@@ -15882,8 +17522,11 @@
       <c r="C796">
         <v>0</v>
       </c>
-    </row>
-    <row r="797" spans="1:3">
+      <c r="D796" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
       <c r="A797">
         <v>26.5</v>
       </c>
@@ -15893,8 +17536,11 @@
       <c r="C797">
         <v>0</v>
       </c>
-    </row>
-    <row r="798" spans="1:3">
+      <c r="D797" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
       <c r="A798">
         <v>26.533329999999999</v>
       </c>
@@ -15904,8 +17550,11 @@
       <c r="C798">
         <v>0</v>
       </c>
-    </row>
-    <row r="799" spans="1:3">
+      <c r="D798" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
       <c r="A799">
         <v>26.566669999999998</v>
       </c>
@@ -15915,8 +17564,11 @@
       <c r="C799">
         <v>0</v>
       </c>
-    </row>
-    <row r="800" spans="1:3">
+      <c r="D799" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4">
       <c r="A800">
         <v>26.6</v>
       </c>
@@ -15926,8 +17578,11 @@
       <c r="C800">
         <v>0</v>
       </c>
-    </row>
-    <row r="801" spans="1:3">
+      <c r="D800" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
       <c r="A801">
         <v>26.633330000000001</v>
       </c>
@@ -15937,8 +17592,11 @@
       <c r="C801">
         <v>0</v>
       </c>
-    </row>
-    <row r="802" spans="1:3">
+      <c r="D801" s="1">
+        <v>4.4027399999999999E-12</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
       <c r="A802">
         <v>26.66667</v>
       </c>
@@ -15947,6 +17605,9 @@
       </c>
       <c r="C802">
         <v>0</v>
+      </c>
+      <c r="D802" s="1">
+        <v>4.4027399999999999E-12</v>
       </c>
     </row>
   </sheetData>
